--- a/SVM/list_kata.xlsx
+++ b/SVM/list_kata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="2715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="2406">
   <si>
     <t>kata</t>
   </si>
@@ -352,18 +352,9 @@
     <t>aamiin</t>
   </si>
   <si>
-    <t>abah</t>
-  </si>
-  <si>
     <t>abdi</t>
   </si>
   <si>
-    <t>abis</t>
-  </si>
-  <si>
-    <t>abs</t>
-  </si>
-  <si>
     <t>absen</t>
   </si>
   <si>
@@ -379,9 +370,6 @@
     <t>acung</t>
   </si>
   <si>
-    <t>ad</t>
-  </si>
-  <si>
     <t>ada</t>
   </si>
   <si>
@@ -394,9 +382,6 @@
     <t>adek</t>
   </si>
   <si>
-    <t>adem</t>
-  </si>
-  <si>
     <t>adi</t>
   </si>
   <si>
@@ -406,18 +391,15 @@
     <t>adil</t>
   </si>
   <si>
-    <t>adl</t>
-  </si>
-  <si>
-    <t>adlh</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
     <t>adu</t>
   </si>
   <si>
+    <t>aduh</t>
+  </si>
+  <si>
     <t>afganistan</t>
   </si>
   <si>
@@ -433,18 +415,9 @@
     <t>agency</t>
   </si>
   <si>
-    <t>agreement</t>
-  </si>
-  <si>
     <t>agum</t>
   </si>
   <si>
-    <t>ah</t>
-  </si>
-  <si>
-    <t>ahahaha</t>
-  </si>
-  <si>
     <t>ahli</t>
   </si>
   <si>
@@ -508,9 +481,6 @@
     <t>akut</t>
   </si>
   <si>
-    <t>akyu</t>
-  </si>
-  <si>
     <t>al</t>
   </si>
   <si>
@@ -544,24 +514,12 @@
     <t>alokasi</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>alutisista</t>
-  </si>
-  <si>
-    <t>alutista</t>
-  </si>
-  <si>
     <t>alutsista</t>
   </si>
   <si>
     <t>am</t>
   </si>
   <si>
-    <t>ama</t>
-  </si>
-  <si>
     <t>aman</t>
   </si>
   <si>
@@ -574,15 +532,9 @@
     <t>amerika</t>
   </si>
   <si>
-    <t>amiinn</t>
-  </si>
-  <si>
     <t>amin</t>
   </si>
   <si>
-    <t>ampe</t>
-  </si>
-  <si>
     <t>ampun</t>
   </si>
   <si>
@@ -601,15 +553,6 @@
     <t>ancam</t>
   </si>
   <si>
-    <t>anceman</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>anda</t>
-  </si>
-  <si>
     <t>andal</t>
   </si>
   <si>
@@ -643,9 +586,6 @@
     <t>anis</t>
   </si>
   <si>
-    <t>anjay</t>
-  </si>
-  <si>
     <t>antek</t>
   </si>
   <si>
@@ -679,7 +619,7 @@
     <t>apes</t>
   </si>
   <si>
-    <t>apk</t>
+    <t>apik</t>
   </si>
   <si>
     <t>apresiasi</t>
@@ -688,9 +628,6 @@
     <t>april</t>
   </si>
   <si>
-    <t>aq</t>
-  </si>
-  <si>
     <t>aquaproof</t>
   </si>
   <si>
@@ -730,9 +667,6 @@
     <t>asal</t>
   </si>
   <si>
-    <t>asbun</t>
-  </si>
-  <si>
     <t>asia</t>
   </si>
   <si>
@@ -787,6 +721,9 @@
     <t>awat</t>
   </si>
   <si>
+    <t>ayah</t>
+  </si>
+  <si>
     <t>ayam</t>
   </si>
   <si>
@@ -802,18 +739,12 @@
     <t>babak</t>
   </si>
   <si>
-    <t>babeh</t>
-  </si>
-  <si>
     <t>babi</t>
   </si>
   <si>
     <t>baca</t>
   </si>
   <si>
-    <t>bacot</t>
-  </si>
-  <si>
     <t>badan</t>
   </si>
   <si>
@@ -943,15 +874,9 @@
     <t>banyumasan</t>
   </si>
   <si>
-    <t>bapa</t>
-  </si>
-  <si>
     <t>bapak</t>
   </si>
   <si>
-    <t>baper</t>
-  </si>
-  <si>
     <t>barat</t>
   </si>
   <si>
@@ -1057,15 +982,9 @@
     <t>beliau</t>
   </si>
   <si>
-    <t>belio</t>
-  </si>
-  <si>
     <t>belit</t>
   </si>
   <si>
-    <t>bellum</t>
-  </si>
-  <si>
     <t>belum</t>
   </si>
   <si>
@@ -1087,18 +1006,12 @@
     <t>bendung</t>
   </si>
   <si>
-    <t>bener</t>
-  </si>
-  <si>
     <t>beneran</t>
   </si>
   <si>
     <t>bengkulu</t>
   </si>
   <si>
-    <t>benning</t>
-  </si>
-  <si>
     <t>bentak</t>
   </si>
   <si>
@@ -1159,27 +1072,12 @@
     <t>betul</t>
   </si>
   <si>
-    <t>beud</t>
-  </si>
-  <si>
-    <t>bgs</t>
-  </si>
-  <si>
-    <t>bgt</t>
-  </si>
-  <si>
-    <t>bhw</t>
-  </si>
-  <si>
     <t>biar</t>
   </si>
   <si>
     <t>biasa</t>
   </si>
   <si>
-    <t>biassaa</t>
-  </si>
-  <si>
     <t>biaya</t>
   </si>
   <si>
@@ -1207,9 +1105,6 @@
     <t>bin</t>
   </si>
   <si>
-    <t>bingits</t>
-  </si>
-  <si>
     <t>bingung</t>
   </si>
   <si>
@@ -1231,30 +1126,9 @@
     <t>bisnis</t>
   </si>
   <si>
-    <t>bkn</t>
-  </si>
-  <si>
-    <t>bla</t>
-  </si>
-  <si>
     <t>blejekin</t>
   </si>
   <si>
-    <t>blio</t>
-  </si>
-  <si>
-    <t>blm</t>
-  </si>
-  <si>
-    <t>blok</t>
-  </si>
-  <si>
-    <t>bnyak</t>
-  </si>
-  <si>
-    <t>bobo</t>
-  </si>
-  <si>
     <t>bobot</t>
   </si>
   <si>
@@ -1267,9 +1141,6 @@
     <t>bocor</t>
   </si>
   <si>
-    <t>bodo</t>
-  </si>
-  <si>
     <t>bodoh</t>
   </si>
   <si>
@@ -1321,30 +1192,9 @@
     <t>brandal</t>
   </si>
   <si>
-    <t>brangkat</t>
-  </si>
-  <si>
-    <t>bravo</t>
-  </si>
-  <si>
-    <t>bravoo</t>
-  </si>
-  <si>
-    <t>bray</t>
-  </si>
-  <si>
-    <t>brbnah</t>
-  </si>
-  <si>
-    <t>break</t>
-  </si>
-  <si>
     <t>breastest</t>
   </si>
   <si>
-    <t>brharap</t>
-  </si>
-  <si>
     <t>briefing</t>
   </si>
   <si>
@@ -1354,21 +1204,9 @@
     <t>broadband</t>
   </si>
   <si>
-    <t>broh</t>
-  </si>
-  <si>
-    <t>brsama</t>
-  </si>
-  <si>
-    <t>brtahan</t>
-  </si>
-  <si>
     <t>brutal</t>
   </si>
   <si>
-    <t>bs</t>
-  </si>
-  <si>
     <t>buah</t>
   </si>
   <si>
@@ -1435,9 +1273,6 @@
     <t>bus</t>
   </si>
   <si>
-    <t>buser</t>
-  </si>
-  <si>
     <t>buta</t>
   </si>
   <si>
@@ -1453,9 +1288,6 @@
     <t>bye</t>
   </si>
   <si>
-    <t>byk</t>
-  </si>
-  <si>
     <t>c7</t>
   </si>
   <si>
@@ -1501,18 +1333,9 @@
     <t>capres</t>
   </si>
   <si>
-    <t>capresku</t>
-  </si>
-  <si>
-    <t>capresnya</t>
-  </si>
-  <si>
     <t>cara</t>
   </si>
   <si>
-    <t>carakter</t>
-  </si>
-  <si>
     <t>cari</t>
   </si>
   <si>
@@ -1525,15 +1348,9 @@
     <t>cc</t>
   </si>
   <si>
-    <t>cebi</t>
-  </si>
-  <si>
     <t>cebong</t>
   </si>
   <si>
-    <t>cebongs</t>
-  </si>
-  <si>
     <t>cegah</t>
   </si>
   <si>
@@ -1552,9 +1369,6 @@
     <t>cepat</t>
   </si>
   <si>
-    <t>cepet</t>
-  </si>
-  <si>
     <t>cer</t>
   </si>
   <si>
@@ -1636,9 +1450,6 @@
     <t>coba</t>
   </si>
   <si>
-    <t>coblooosss</t>
-  </si>
-  <si>
     <t>coblos</t>
   </si>
   <si>
@@ -1663,18 +1474,12 @@
     <t>cor</t>
   </si>
   <si>
-    <t>core</t>
-  </si>
-  <si>
     <t>cox</t>
   </si>
   <si>
     <t>cpi</t>
   </si>
   <si>
-    <t>crying</t>
-  </si>
-  <si>
     <t>cucu</t>
   </si>
   <si>
@@ -1729,15 +1534,9 @@
     <t>dagang</t>
   </si>
   <si>
-    <t>dah</t>
-  </si>
-  <si>
     <t>dalam</t>
   </si>
   <si>
-    <t>damage</t>
-  </si>
-  <si>
     <t>damai</t>
   </si>
   <si>
@@ -1750,9 +1549,6 @@
     <t>dapat</t>
   </si>
   <si>
-    <t>dapet</t>
-  </si>
-  <si>
     <t>darah</t>
   </si>
   <si>
@@ -1777,9 +1573,6 @@
     <t>dbeyzg</t>
   </si>
   <si>
-    <t>ddiplomasihy</t>
-  </si>
-  <si>
     <t>de</t>
   </si>
   <si>
@@ -1807,9 +1600,6 @@
     <t>defense</t>
   </si>
   <si>
-    <t>defenseless</t>
-  </si>
-  <si>
     <t>definisi</t>
   </si>
   <si>
@@ -1843,12 +1633,12 @@
     <t>dengar</t>
   </si>
   <si>
+    <t>denger</t>
+  </si>
+  <si>
     <t>dengerin</t>
   </si>
   <si>
-    <t>dennger</t>
-  </si>
-  <si>
     <t>depan</t>
   </si>
   <si>
@@ -1867,12 +1657,6 @@
     <t>dewasa</t>
   </si>
   <si>
-    <t>dg</t>
-  </si>
-  <si>
-    <t>dgn</t>
-  </si>
-  <si>
     <t>dhe</t>
   </si>
   <si>
@@ -1888,13 +1672,7 @@
     <t>diam</t>
   </si>
   <si>
-    <t>diboongin</t>
-  </si>
-  <si>
-    <t>dibrikan</t>
-  </si>
-  <si>
-    <t>didiemin</t>
+    <t>dibohongin</t>
   </si>
   <si>
     <t>didik</t>
@@ -1906,9 +1684,6 @@
     <t>dihargain</t>
   </si>
   <si>
-    <t>dihrpkn</t>
-  </si>
-  <si>
     <t>dijogja</t>
   </si>
   <si>
@@ -1942,6 +1717,9 @@
     <t>dinamika</t>
   </si>
   <si>
+    <t>dingin</t>
+  </si>
+  <si>
     <t>dini</t>
   </si>
   <si>
@@ -1990,12 +1768,6 @@
     <t>dmjpr</t>
   </si>
   <si>
-    <t>dng</t>
-  </si>
-  <si>
-    <t>dngn</t>
-  </si>
-  <si>
     <t>do</t>
   </si>
   <si>
@@ -2020,9 +1792,6 @@
     <t>dongo</t>
   </si>
   <si>
-    <t>dooong</t>
-  </si>
-  <si>
     <t>dosa</t>
   </si>
   <si>
@@ -2035,15 +1804,6 @@
     <t>down</t>
   </si>
   <si>
-    <t>dpt</t>
-  </si>
-  <si>
-    <t>dr</t>
-  </si>
-  <si>
-    <t>drpd</t>
-  </si>
-  <si>
     <t>dua</t>
   </si>
   <si>
@@ -2086,12 +1846,6 @@
     <t>dusta</t>
   </si>
   <si>
-    <t>duuuhhh</t>
-  </si>
-  <si>
-    <t>dy</t>
-  </si>
-  <si>
     <t>edit</t>
   </si>
   <si>
@@ -2134,24 +1888,12 @@
     <t>elegan</t>
   </si>
   <si>
-    <t>elegant</t>
-  </si>
-  <si>
     <t>elektabilitas</t>
   </si>
   <si>
     <t>elite</t>
   </si>
   <si>
-    <t>elo</t>
-  </si>
-  <si>
-    <t>emak</t>
-  </si>
-  <si>
-    <t>emang</t>
-  </si>
-  <si>
     <t>emas</t>
   </si>
   <si>
@@ -2182,9 +1924,6 @@
     <t>entah</t>
   </si>
   <si>
-    <t>ente</t>
-  </si>
-  <si>
     <t>entry</t>
   </si>
   <si>
@@ -2221,9 +1960,6 @@
     <t>ethok</t>
   </si>
   <si>
-    <t>euy</t>
-  </si>
-  <si>
     <t>evpzax</t>
   </si>
   <si>
@@ -2281,12 +2017,6 @@
     <t>fokus</t>
   </si>
   <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>force</t>
-  </si>
-  <si>
     <t>fort</t>
   </si>
   <si>
@@ -2296,27 +2026,18 @@
     <t>foto</t>
   </si>
   <si>
-    <t>fpi</t>
-  </si>
-  <si>
     <t>framing</t>
   </si>
   <si>
     <t>freeport</t>
   </si>
   <si>
+    <t>front</t>
+  </si>
+  <si>
     <t>frontal</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>ga</t>
-  </si>
-  <si>
-    <t>gabisa</t>
-  </si>
-  <si>
     <t>gabung</t>
   </si>
   <si>
@@ -2326,12 +2047,6 @@
     <t>gadungan</t>
   </si>
   <si>
-    <t>gaees</t>
-  </si>
-  <si>
-    <t>gaeess</t>
-  </si>
-  <si>
     <t>gaes</t>
   </si>
   <si>
@@ -2350,30 +2065,18 @@
     <t>gak</t>
   </si>
   <si>
-    <t>gakda</t>
-  </si>
-  <si>
     <t>galak</t>
   </si>
   <si>
-    <t>gamau</t>
-  </si>
-  <si>
     <t>gambar</t>
   </si>
   <si>
     <t>ganas</t>
   </si>
   <si>
-    <t>gandos</t>
-  </si>
-  <si>
     <t>ganti</t>
   </si>
   <si>
-    <t>gapapa</t>
-  </si>
-  <si>
     <t>gara</t>
   </si>
   <si>
@@ -2386,15 +2089,9 @@
     <t>garis</t>
   </si>
   <si>
-    <t>garus</t>
-  </si>
-  <si>
     <t>gaspoljokowijempol</t>
   </si>
   <si>
-    <t>gate</t>
-  </si>
-  <si>
     <t>gaya</t>
   </si>
   <si>
@@ -2413,9 +2110,6 @@
     <t>gedung</t>
   </si>
   <si>
-    <t>gegara</t>
-  </si>
-  <si>
     <t>gegas</t>
   </si>
   <si>
@@ -2467,6 +2161,9 @@
     <t>geram</t>
   </si>
   <si>
+    <t>gerbang</t>
+  </si>
+  <si>
     <t>gerombol</t>
   </si>
   <si>
@@ -2494,24 +2191,18 @@
     <t>gilas</t>
   </si>
   <si>
+    <t>gilee</t>
+  </si>
+  <si>
     <t>gilir</t>
   </si>
   <si>
-    <t>gimana</t>
-  </si>
-  <si>
     <t>gin</t>
   </si>
   <si>
     <t>gitu</t>
   </si>
   <si>
-    <t>gitulooo</t>
-  </si>
-  <si>
-    <t>gk</t>
-  </si>
-  <si>
     <t>gkgy</t>
   </si>
   <si>
@@ -2551,27 +2242,12 @@
     <t>goyang</t>
   </si>
   <si>
-    <t>gpp</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>gtu</t>
-  </si>
-  <si>
     <t>gu7yd7owzz</t>
   </si>
   <si>
-    <t>gua</t>
-  </si>
-  <si>
     <t>gubernur</t>
   </si>
   <si>
-    <t>gue</t>
-  </si>
-  <si>
     <t>gulir</t>
   </si>
   <si>
@@ -2596,9 +2272,6 @@
     <t>guys</t>
   </si>
   <si>
-    <t>gw</t>
-  </si>
-  <si>
     <t>h7ihhwk8sr</t>
   </si>
   <si>
@@ -2611,9 +2284,6 @@
     <t>hadap</t>
   </si>
   <si>
-    <t>hadeuh</t>
-  </si>
-  <si>
     <t>hadir</t>
   </si>
   <si>
@@ -2626,13 +2296,7 @@
     <t>hahaha</t>
   </si>
   <si>
-    <t>hahahaha</t>
-  </si>
-  <si>
-    <t>hahhahhahaha</t>
-  </si>
-  <si>
-    <t>haissshhh</t>
+    <t>hai</t>
   </si>
   <si>
     <t>hajar</t>
@@ -2671,9 +2335,6 @@
     <t>hancur</t>
   </si>
   <si>
-    <t>hancurrr</t>
-  </si>
-  <si>
     <t>hangat</t>
   </si>
   <si>
@@ -2710,27 +2371,21 @@
     <t>hasil</t>
   </si>
   <si>
-    <t>haters</t>
-  </si>
-  <si>
     <t>hati</t>
   </si>
   <si>
     <t>haus</t>
   </si>
   <si>
-    <t>hay</t>
-  </si>
-  <si>
-    <t>he</t>
-  </si>
-  <si>
     <t>hebat</t>
   </si>
   <si>
     <t>hebertus</t>
   </si>
   <si>
+    <t>hehe</t>
+  </si>
+  <si>
     <t>hei</t>
   </si>
   <si>
@@ -2761,9 +2416,6 @@
     <t>hidup</t>
   </si>
   <si>
-    <t>highlight</t>
-  </si>
-  <si>
     <t>hilang</t>
   </si>
   <si>
@@ -2779,16 +2431,7 @@
     <t>hizbut</t>
   </si>
   <si>
-    <t>hmmm</t>
-  </si>
-  <si>
-    <t>hny</t>
-  </si>
-  <si>
-    <t>hoaks</t>
-  </si>
-  <si>
-    <t>hoax</t>
+    <t>hm</t>
   </si>
   <si>
     <t>honorer</t>
@@ -2800,9 +2443,6 @@
     <t>hotel</t>
   </si>
   <si>
-    <t>hrs</t>
-  </si>
-  <si>
     <t>hti</t>
   </si>
   <si>
@@ -2812,9 +2452,6 @@
     <t>hubung</t>
   </si>
   <si>
-    <t>huehehehe</t>
-  </si>
-  <si>
     <t>hujat</t>
   </si>
   <si>
@@ -2830,9 +2467,6 @@
     <t>hybrid</t>
   </si>
   <si>
-    <t>ia</t>
-  </si>
-  <si>
     <t>ibgmfaixw</t>
   </si>
   <si>
@@ -2881,12 +2515,6 @@
     <t>impor</t>
   </si>
   <si>
-    <t>import</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
     <t>independen</t>
   </si>
   <si>
@@ -2938,7 +2566,7 @@
     <t>inj</t>
   </si>
   <si>
-    <t>injubasi</t>
+    <t>inkubasi</t>
   </si>
   <si>
     <t>innailaihiraaji</t>
@@ -2950,21 +2578,9 @@
     <t>insaallah</t>
   </si>
   <si>
-    <t>inshaa</t>
-  </si>
-  <si>
     <t>inspirasi</t>
   </si>
   <si>
-    <t>insya</t>
-  </si>
-  <si>
-    <t>insyaallah</t>
-  </si>
-  <si>
-    <t>insyaalloh</t>
-  </si>
-  <si>
     <t>insyallah</t>
   </si>
   <si>
@@ -3025,9 +2641,6 @@
     <t>israel</t>
   </si>
   <si>
-    <t>issue</t>
-  </si>
-  <si>
     <t>istana</t>
   </si>
   <si>
@@ -3049,15 +2662,6 @@
     <t>isyarat</t>
   </si>
   <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>ite</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
     <t>itu</t>
   </si>
   <si>
@@ -3067,9 +2671,6 @@
     <t>izin</t>
   </si>
   <si>
-    <t>jaaauh</t>
-  </si>
-  <si>
     <t>jabat</t>
   </si>
   <si>
@@ -3079,12 +2680,6 @@
     <t>jadul</t>
   </si>
   <si>
-    <t>jae</t>
-  </si>
-  <si>
-    <t>jaenudin</t>
-  </si>
-  <si>
     <t>jaga</t>
   </si>
   <si>
@@ -3136,9 +2731,6 @@
     <t>jangkau</t>
   </si>
   <si>
-    <t>janj</t>
-  </si>
-  <si>
     <t>janji</t>
   </si>
   <si>
@@ -3181,9 +2773,6 @@
     <t>jayen</t>
   </si>
   <si>
-    <t>jd</t>
-  </si>
-  <si>
     <t>jejak</t>
   </si>
   <si>
@@ -3199,27 +2788,12 @@
     <t>jemput</t>
   </si>
   <si>
-    <t>jend</t>
-  </si>
-  <si>
     <t>jenderal</t>
   </si>
   <si>
-    <t>jendral</t>
-  </si>
-  <si>
     <t>jenggot</t>
   </si>
   <si>
-    <t>jg</t>
-  </si>
-  <si>
-    <t>jgn</t>
-  </si>
-  <si>
-    <t>jgnkan</t>
-  </si>
-  <si>
     <t>jika</t>
   </si>
   <si>
@@ -3235,18 +2809,9 @@
     <t>jk</t>
   </si>
   <si>
-    <t>jkw</t>
-  </si>
-  <si>
     <t>jn0ui9jd3s</t>
   </si>
   <si>
-    <t>jng</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>joged</t>
   </si>
   <si>
@@ -3280,9 +2845,6 @@
     <t>jokowimengubahsemua</t>
   </si>
   <si>
-    <t>jokuwi</t>
-  </si>
-  <si>
     <t>jomang</t>
   </si>
   <si>
@@ -3337,9 +2899,6 @@
     <t>juta</t>
   </si>
   <si>
-    <t>jutkan</t>
-  </si>
-  <si>
     <t>kab</t>
   </si>
   <si>
@@ -3388,18 +2947,12 @@
     <t>kalau</t>
   </si>
   <si>
-    <t>kaleee</t>
-  </si>
-  <si>
     <t>kali</t>
   </si>
   <si>
     <t>kalian</t>
   </si>
   <si>
-    <t>kalik</t>
-  </si>
-  <si>
     <t>kalimantan</t>
   </si>
   <si>
@@ -3409,9 +2962,6 @@
     <t>kalla</t>
   </si>
   <si>
-    <t>kalo</t>
-  </si>
-  <si>
     <t>kalong</t>
   </si>
   <si>
@@ -3466,9 +3016,6 @@
     <t>karet</t>
   </si>
   <si>
-    <t>karna</t>
-  </si>
-  <si>
     <t>karnajokowi</t>
   </si>
   <si>
@@ -3505,9 +3052,6 @@
     <t>katolik</t>
   </si>
   <si>
-    <t>kau</t>
-  </si>
-  <si>
     <t>kaum</t>
   </si>
   <si>
@@ -3529,9 +3073,6 @@
     <t>kc5cpgca0n</t>
   </si>
   <si>
-    <t>kcptan</t>
-  </si>
-  <si>
     <t>ke</t>
   </si>
   <si>
@@ -3541,9 +3082,6 @@
     <t>kebo</t>
   </si>
   <si>
-    <t>kebranian</t>
-  </si>
-  <si>
     <t>keburu</t>
   </si>
   <si>
@@ -3559,9 +3097,6 @@
     <t>kecoh</t>
   </si>
   <si>
-    <t>kedpn</t>
-  </si>
-  <si>
     <t>kejar</t>
   </si>
   <si>
@@ -3583,9 +3118,6 @@
     <t>kelas</t>
   </si>
   <si>
-    <t>kelen</t>
-  </si>
-  <si>
     <t>keliru</t>
   </si>
   <si>
@@ -3652,16 +3184,10 @@
     <t>keras</t>
   </si>
   <si>
-    <t>kereeen</t>
-  </si>
-  <si>
     <t>keren</t>
   </si>
   <si>
-    <t>kerenn</t>
-  </si>
-  <si>
-    <t>keringet</t>
+    <t>keringat</t>
   </si>
   <si>
     <t>kerja</t>
@@ -3685,9 +3211,6 @@
     <t>ketawa</t>
   </si>
   <si>
-    <t>keterrtinggalan</t>
-  </si>
-  <si>
     <t>ketidakpastian</t>
   </si>
   <si>
@@ -3700,9 +3223,6 @@
     <t>ketua</t>
   </si>
   <si>
-    <t>kexurangan</t>
-  </si>
-  <si>
     <t>keyword</t>
   </si>
   <si>
@@ -3748,48 +3268,15 @@
     <t>kita</t>
   </si>
   <si>
-    <t>kl</t>
-  </si>
-  <si>
     <t>klaim</t>
   </si>
   <si>
     <t>klarifikasi</t>
   </si>
   <si>
-    <t>klau</t>
-  </si>
-  <si>
-    <t>klean</t>
-  </si>
-  <si>
     <t>klepek</t>
   </si>
   <si>
-    <t>klo</t>
-  </si>
-  <si>
-    <t>kluar</t>
-  </si>
-  <si>
-    <t>klw</t>
-  </si>
-  <si>
-    <t>km</t>
-  </si>
-  <si>
-    <t>kmi</t>
-  </si>
-  <si>
-    <t>knapa</t>
-  </si>
-  <si>
-    <t>knowledge</t>
-  </si>
-  <si>
-    <t>knp</t>
-  </si>
-  <si>
     <t>knytaan</t>
   </si>
   <si>
@@ -3892,15 +3379,6 @@
     <t>kota</t>
   </si>
   <si>
-    <t>kowe</t>
-  </si>
-  <si>
-    <t>kpd</t>
-  </si>
-  <si>
-    <t>kpda</t>
-  </si>
-  <si>
     <t>kpk</t>
   </si>
   <si>
@@ -3928,9 +3406,6 @@
     <t>kritisi</t>
   </si>
   <si>
-    <t>krn</t>
-  </si>
-  <si>
     <t>ksatria</t>
   </si>
   <si>
@@ -3997,9 +3472,6 @@
     <t>kutuk</t>
   </si>
   <si>
-    <t>kyknya</t>
-  </si>
-  <si>
     <t>l143x7rvt5</t>
   </si>
   <si>
@@ -4036,6 +3508,9 @@
     <t>lai</t>
   </si>
   <si>
+    <t>lain</t>
+  </si>
+  <si>
     <t>laju</t>
   </si>
   <si>
@@ -4120,12 +3595,6 @@
     <t>layar</t>
   </si>
   <si>
-    <t>lbh</t>
-  </si>
-  <si>
-    <t>lbih</t>
-  </si>
-  <si>
     <t>leader</t>
   </si>
   <si>
@@ -4171,15 +3640,9 @@
     <t>letak</t>
   </si>
   <si>
-    <t>lg</t>
-  </si>
-  <si>
     <t>lho</t>
   </si>
   <si>
-    <t>lhooo</t>
-  </si>
-  <si>
     <t>liat</t>
   </si>
   <si>
@@ -4216,21 +3679,12 @@
     <t>lo</t>
   </si>
   <si>
-    <t>loh</t>
-  </si>
-  <si>
-    <t>lol</t>
-  </si>
-  <si>
     <t>lompat</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>lu</t>
-  </si>
-  <si>
     <t>luar</t>
   </si>
   <si>
@@ -4348,12 +3802,12 @@
     <t>maksa</t>
   </si>
   <si>
+    <t>maksimal</t>
+  </si>
+  <si>
     <t>maksud</t>
   </si>
   <si>
-    <t>maksude</t>
-  </si>
-  <si>
     <t>mal</t>
   </si>
   <si>
@@ -4408,30 +3862,15 @@
     <t>mantap</t>
   </si>
   <si>
-    <t>mantebb</t>
-  </si>
-  <si>
-    <t>manteman</t>
-  </si>
-  <si>
     <t>mantep</t>
   </si>
   <si>
     <t>mantra</t>
   </si>
   <si>
-    <t>mantul</t>
-  </si>
-  <si>
-    <t>mantulll</t>
-  </si>
-  <si>
     <t>manusia</t>
   </si>
   <si>
-    <t>mara</t>
-  </si>
-  <si>
     <t>marah</t>
   </si>
   <si>
@@ -4441,7 +3880,7 @@
     <t>maret</t>
   </si>
   <si>
-    <t>mariii</t>
+    <t>mari</t>
   </si>
   <si>
     <t>maruf</t>
@@ -4462,9 +3901,6 @@
     <t>masalah</t>
   </si>
   <si>
-    <t>masalh</t>
-  </si>
-  <si>
     <t>mashaallah</t>
   </si>
   <si>
@@ -4486,9 +3922,6 @@
     <t>masyarakat</t>
   </si>
   <si>
-    <t>masyrakat</t>
-  </si>
-  <si>
     <t>mat</t>
   </si>
   <si>
@@ -4516,36 +3949,18 @@
     <t>maupun</t>
   </si>
   <si>
-    <t>maxsimal</t>
-  </si>
-  <si>
     <t>mayor</t>
   </si>
   <si>
-    <t>mbacot</t>
-  </si>
-  <si>
     <t>mbak</t>
   </si>
   <si>
-    <t>mbakyu</t>
-  </si>
-  <si>
     <t>mbentengi</t>
   </si>
   <si>
-    <t>mberi</t>
-  </si>
-  <si>
-    <t>mberikan</t>
-  </si>
-  <si>
     <t>mc</t>
   </si>
   <si>
-    <t>mebgalahka</t>
-  </si>
-  <si>
     <t>medan</t>
   </si>
   <si>
@@ -4570,9 +3985,6 @@
     <t>memang</t>
   </si>
   <si>
-    <t>membrikan</t>
-  </si>
-  <si>
     <t>membully</t>
   </si>
   <si>
@@ -4597,7 +4009,7 @@
     <t>menganalisa</t>
   </si>
   <si>
-    <t>mengatakn</t>
+    <t>mengapa</t>
   </si>
   <si>
     <t>menhan</t>
@@ -4726,30 +4138,9 @@
     <t>mistericapjempol</t>
   </si>
   <si>
-    <t>mjd</t>
-  </si>
-  <si>
-    <t>mlm</t>
-  </si>
-  <si>
-    <t>mmbangun</t>
-  </si>
-  <si>
-    <t>mmberikan</t>
-  </si>
-  <si>
-    <t>mmg</t>
-  </si>
-  <si>
     <t>mmjebjk</t>
   </si>
   <si>
-    <t>mnyambut</t>
-  </si>
-  <si>
-    <t>mo</t>
-  </si>
-  <si>
     <t>mobil</t>
   </si>
   <si>
@@ -4786,30 +4177,15 @@
     <t>monoton</t>
   </si>
   <si>
-    <t>mosok</t>
-  </si>
-  <si>
     <t>motor</t>
   </si>
   <si>
-    <t>mpu</t>
-  </si>
-  <si>
     <t>mr</t>
   </si>
   <si>
-    <t>mrk</t>
-  </si>
-  <si>
     <t>ms7crkhozf</t>
   </si>
   <si>
-    <t>msh</t>
-  </si>
-  <si>
-    <t>msyrakat</t>
-  </si>
-  <si>
     <t>mualaf</t>
   </si>
   <si>
@@ -4825,9 +4201,6 @@
     <t>muka</t>
   </si>
   <si>
-    <t>mulaaai</t>
-  </si>
-  <si>
     <t>mulai</t>
   </si>
   <si>
@@ -4879,21 +4252,18 @@
     <t>myanmar</t>
   </si>
   <si>
-    <t>naaah</t>
-  </si>
-  <si>
     <t>nada</t>
   </si>
   <si>
+    <t>nah</t>
+  </si>
+  <si>
     <t>nahdliyinbukanjokower</t>
   </si>
   <si>
     <t>nahdliyindukung</t>
   </si>
   <si>
-    <t>nahhh</t>
-  </si>
-  <si>
     <t>nahkan</t>
   </si>
   <si>
@@ -4927,21 +4297,12 @@
     <t>nanya</t>
   </si>
   <si>
-    <t>napa</t>
-  </si>
-  <si>
-    <t>napah</t>
-  </si>
-  <si>
     <t>napitupulu</t>
   </si>
   <si>
     <t>narasi</t>
   </si>
   <si>
-    <t>nasio</t>
-  </si>
-  <si>
     <t>nasional</t>
   </si>
   <si>
@@ -4969,15 +4330,9 @@
     <t>negeri</t>
   </si>
   <si>
-    <t>neh</t>
-  </si>
-  <si>
     <t>nelayan</t>
   </si>
   <si>
-    <t>nelen</t>
-  </si>
-  <si>
     <t>nempel</t>
   </si>
   <si>
@@ -5002,9 +4357,6 @@
     <t>netral</t>
   </si>
   <si>
-    <t>neyh</t>
-  </si>
-  <si>
     <t>nfiq</t>
   </si>
   <si>
@@ -5065,9 +4417,6 @@
     <t>ngeri</t>
   </si>
   <si>
-    <t>ngeriii</t>
-  </si>
-  <si>
     <t>ngeritik</t>
   </si>
   <si>
@@ -5083,18 +4432,9 @@
     <t>nggedabrus</t>
   </si>
   <si>
-    <t>nggk</t>
-  </si>
-  <si>
     <t>ngikut</t>
   </si>
   <si>
-    <t>ngk</t>
-  </si>
-  <si>
-    <t>ngmg</t>
-  </si>
-  <si>
     <t>ngomong</t>
   </si>
   <si>
@@ -5200,9 +4540,6 @@
     <t>nusantara</t>
   </si>
   <si>
-    <t>ny</t>
-  </si>
-  <si>
     <t>nya</t>
   </si>
   <si>
@@ -5251,9 +4588,6 @@
     <t>o1</t>
   </si>
   <si>
-    <t>oaling</t>
-  </si>
-  <si>
     <t>oce</t>
   </si>
   <si>
@@ -5284,9 +4618,6 @@
     <t>om</t>
   </si>
   <si>
-    <t>omdo</t>
-  </si>
-  <si>
     <t>omel</t>
   </si>
   <si>
@@ -5341,15 +4672,9 @@
     <t>orde</t>
   </si>
   <si>
-    <t>org</t>
-  </si>
-  <si>
     <t>organisasi</t>
   </si>
   <si>
-    <t>orng</t>
-  </si>
-  <si>
     <t>oss</t>
   </si>
   <si>
@@ -5359,19 +4684,10 @@
     <t>ott</t>
   </si>
   <si>
-    <t>out</t>
-  </si>
-  <si>
     <t>overdosis</t>
   </si>
   <si>
-    <t>oyy</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>paak</t>
+    <t>oy</t>
   </si>
   <si>
     <t>pacem</t>
@@ -5413,9 +4729,6 @@
     <t>pakde</t>
   </si>
   <si>
-    <t>pakdee</t>
-  </si>
-  <si>
     <t>pakdhe</t>
   </si>
   <si>
@@ -5575,9 +4888,6 @@
     <t>pbb</t>
   </si>
   <si>
-    <t>pd</t>
-  </si>
-  <si>
     <t>pdb</t>
   </si>
   <si>
@@ -5614,12 +4924,6 @@
     <t>peluru</t>
   </si>
   <si>
-    <t>pelyanan</t>
-  </si>
-  <si>
-    <t>pembanguanan</t>
-  </si>
-  <si>
     <t>pemerintahandilan</t>
   </si>
   <si>
@@ -5671,9 +4975,6 @@
     <t>performa</t>
   </si>
   <si>
-    <t>performent</t>
-  </si>
-  <si>
     <t>perihal</t>
   </si>
   <si>
@@ -5716,9 +5017,6 @@
     <t>pertama</t>
   </si>
   <si>
-    <t>perthanan</t>
-  </si>
-  <si>
     <t>pertiwi</t>
   </si>
   <si>
@@ -5752,9 +5050,6 @@
     <t>petinggi</t>
   </si>
   <si>
-    <t>phm</t>
-  </si>
-  <si>
     <t>phy</t>
   </si>
   <si>
@@ -5821,12 +5116,6 @@
     <t>plongo</t>
   </si>
   <si>
-    <t>pmerintahan</t>
-  </si>
-  <si>
-    <t>pmrintahn</t>
-  </si>
-  <si>
     <t>pns</t>
   </si>
   <si>
@@ -5932,15 +5221,9 @@
     <t>praktik</t>
   </si>
   <si>
-    <t>prb</t>
-  </si>
-  <si>
     <t>prediksi</t>
   </si>
   <si>
-    <t>pres</t>
-  </si>
-  <si>
     <t>presiden</t>
   </si>
   <si>
@@ -5950,15 +5233,12 @@
     <t>presidential</t>
   </si>
   <si>
-    <t>press</t>
+    <t>presidenya</t>
   </si>
   <si>
     <t>prestasi</t>
   </si>
   <si>
-    <t>pretasi</t>
-  </si>
-  <si>
     <t>pretensi</t>
   </si>
   <si>
@@ -6004,9 +5284,6 @@
     <t>proyek</t>
   </si>
   <si>
-    <t>ps</t>
-  </si>
-  <si>
     <t>puas</t>
   </si>
   <si>
@@ -6100,9 +5377,6 @@
     <t>qptegiu</t>
   </si>
   <si>
-    <t>qt</t>
-  </si>
-  <si>
     <t>qtfysc</t>
   </si>
   <si>
@@ -6136,15 +5410,6 @@
     <t>rakyat</t>
   </si>
   <si>
-    <t>rakyatm</t>
-  </si>
-  <si>
-    <t>rakyay</t>
-  </si>
-  <si>
-    <t>rakyt</t>
-  </si>
-  <si>
     <t>ralat</t>
   </si>
   <si>
@@ -6214,9 +5479,6 @@
     <t>regime</t>
   </si>
   <si>
-    <t>rejim</t>
-  </si>
-  <si>
     <t>rek</t>
   </si>
   <si>
@@ -6262,9 +5524,6 @@
     <t>retorika</t>
   </si>
   <si>
-    <t>retuitya</t>
-  </si>
-  <si>
     <t>retwet</t>
   </si>
   <si>
@@ -6373,6 +5632,9 @@
     <t>rupiah</t>
   </si>
   <si>
+    <t>rusa</t>
+  </si>
+  <si>
     <t>rusuh</t>
   </si>
   <si>
@@ -6469,6 +5731,9 @@
     <t>sangat</t>
   </si>
   <si>
+    <t>sangkut</t>
+  </si>
+  <si>
     <t>sanjung</t>
   </si>
   <si>
@@ -6499,12 +5764,6 @@
     <t>sayanusayamilih</t>
   </si>
   <si>
-    <t>sbg</t>
-  </si>
-  <si>
-    <t>sbgai</t>
-  </si>
-  <si>
     <t>sby</t>
   </si>
   <si>
@@ -6517,21 +5776,12 @@
     <t>score</t>
   </si>
   <si>
-    <t>scr</t>
-  </si>
-  <si>
     <t>screamo</t>
   </si>
   <si>
     <t>sd</t>
   </si>
   <si>
-    <t>sdh</t>
-  </si>
-  <si>
-    <t>sdng</t>
-  </si>
-  <si>
     <t>seba</t>
   </si>
   <si>
@@ -6613,9 +5863,6 @@
     <t>sektor</t>
   </si>
   <si>
-    <t>selaaww</t>
-  </si>
-  <si>
     <t>selalu</t>
   </si>
   <si>
@@ -6625,18 +5872,12 @@
     <t>selesai</t>
   </si>
   <si>
-    <t>selow</t>
-  </si>
-  <si>
     <t>seluruh</t>
   </si>
   <si>
     <t>semangat</t>
   </si>
   <si>
-    <t>semntara</t>
-  </si>
-  <si>
     <t>sempat</t>
   </si>
   <si>
@@ -6724,9 +5965,6 @@
     <t>sewot</t>
   </si>
   <si>
-    <t>sgt</t>
-  </si>
-  <si>
     <t>shangri</t>
   </si>
   <si>
@@ -6763,9 +6001,6 @@
     <t>sibuk</t>
   </si>
   <si>
-    <t>sich</t>
-  </si>
-  <si>
     <t>sidang</t>
   </si>
   <si>
@@ -6865,48 +6100,24 @@
     <t>situs</t>
   </si>
   <si>
-    <t>sj</t>
-  </si>
-  <si>
     <t>skak</t>
   </si>
   <si>
     <t>skakmaat</t>
   </si>
   <si>
-    <t>skali</t>
-  </si>
-  <si>
-    <t>skarang</t>
-  </si>
-  <si>
     <t>skip</t>
   </si>
   <si>
     <t>skor</t>
   </si>
   <si>
-    <t>skrg</t>
-  </si>
-  <si>
-    <t>sll</t>
-  </si>
-  <si>
-    <t>sm</t>
-  </si>
-  <si>
     <t>smart</t>
   </si>
   <si>
     <t>smith</t>
   </si>
   <si>
-    <t>smoga</t>
-  </si>
-  <si>
-    <t>smtr</t>
-  </si>
-  <si>
     <t>so</t>
   </si>
   <si>
@@ -6970,9 +6181,6 @@
     <t>spontan</t>
   </si>
   <si>
-    <t>sprti</t>
-  </si>
-  <si>
     <t>stabil</t>
   </si>
   <si>
@@ -6985,18 +6193,12 @@
     <t>stamina</t>
   </si>
   <si>
-    <t>starup</t>
-  </si>
-  <si>
-    <t>statemen</t>
+    <t>startup</t>
   </si>
   <si>
     <t>statement</t>
   </si>
   <si>
-    <t>stelan</t>
-  </si>
-  <si>
     <t>strategi</t>
   </si>
   <si>
@@ -7015,9 +6217,6 @@
     <t>studio</t>
   </si>
   <si>
-    <t>stuju</t>
-  </si>
-  <si>
     <t>sua</t>
   </si>
   <si>
@@ -7144,15 +6343,6 @@
     <t>swt</t>
   </si>
   <si>
-    <t>sy</t>
-  </si>
-  <si>
-    <t>sya</t>
-  </si>
-  <si>
-    <t>syaa</t>
-  </si>
-  <si>
     <t>syndicate</t>
   </si>
   <si>
@@ -7312,15 +6502,6 @@
     <t>tax</t>
   </si>
   <si>
-    <t>tcakepp</t>
-  </si>
-  <si>
-    <t>td</t>
-  </si>
-  <si>
-    <t>tdk</t>
-  </si>
-  <si>
     <t>tebal</t>
   </si>
   <si>
@@ -7342,9 +6523,6 @@
     <t>tegur</t>
   </si>
   <si>
-    <t>tehnologi</t>
-  </si>
-  <si>
     <t>tekad</t>
   </si>
   <si>
@@ -7357,7 +6535,7 @@
     <t>teks</t>
   </si>
   <si>
-    <t>telaaak</t>
+    <t>tel</t>
   </si>
   <si>
     <t>teladan</t>
@@ -7474,24 +6652,12 @@
     <t>teyap</t>
   </si>
   <si>
-    <t>tgl</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>thd</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
     <t>they</t>
   </si>
   <si>
-    <t>thn</t>
-  </si>
-  <si>
     <t>thuwailibi</t>
   </si>
   <si>
@@ -7573,9 +6739,6 @@
     <t>tnt</t>
   </si>
   <si>
-    <t>tnya</t>
-  </si>
-  <si>
     <t>to</t>
   </si>
   <si>
@@ -7624,9 +6787,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>tp</t>
-  </si>
-  <si>
     <t>tps</t>
   </si>
   <si>
@@ -7657,27 +6817,12 @@
     <t>triliun</t>
   </si>
   <si>
-    <t>trnyta</t>
-  </si>
-  <si>
-    <t>trs</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>trus</t>
-  </si>
-  <si>
-    <t>ttg</t>
-  </si>
-  <si>
     <t>tu</t>
   </si>
   <si>
-    <t>tuch</t>
-  </si>
-  <si>
     <t>tuding</t>
   </si>
   <si>
@@ -7738,9 +6883,6 @@
     <t>tutup</t>
   </si>
   <si>
-    <t>tuuh</t>
-  </si>
-  <si>
     <t>tv</t>
   </si>
   <si>
@@ -7759,9 +6901,6 @@
     <t>ucap</t>
   </si>
   <si>
-    <t>ud</t>
-  </si>
-  <si>
     <t>udah</t>
   </si>
   <si>
@@ -7771,15 +6910,9 @@
     <t>udara</t>
   </si>
   <si>
-    <t>udh</t>
-  </si>
-  <si>
     <t>ue10thkyey</t>
   </si>
   <si>
-    <t>uiii</t>
-  </si>
-  <si>
     <t>ujar</t>
   </si>
   <si>
@@ -7864,9 +6997,6 @@
     <t>usdobwdlba</t>
   </si>
   <si>
-    <t>ust</t>
-  </si>
-  <si>
     <t>ustad</t>
   </si>
   <si>
@@ -7882,18 +7012,9 @@
     <t>utang</t>
   </si>
   <si>
-    <t>utk</t>
-  </si>
-  <si>
-    <t>uu</t>
-  </si>
-  <si>
     <t>uunuy</t>
   </si>
   <si>
-    <t>uwuwuwuwu</t>
-  </si>
-  <si>
     <t>very</t>
   </si>
   <si>
@@ -7921,9 +7042,6 @@
     <t>vote</t>
   </si>
   <si>
-    <t>vs</t>
-  </si>
-  <si>
     <t>vwhecy</t>
   </si>
   <si>
@@ -7933,9 +7051,6 @@
     <t>wa</t>
   </si>
   <si>
-    <t>wadawww</t>
-  </si>
-  <si>
     <t>wah</t>
   </si>
   <si>
@@ -7951,6 +7066,9 @@
     <t>wakaf</t>
   </si>
   <si>
+    <t>wakil</t>
+  </si>
+  <si>
     <t>waktu</t>
   </si>
   <si>
@@ -8029,15 +7147,15 @@
     <t>wo</t>
   </si>
   <si>
+    <t>woi</t>
+  </si>
+  <si>
     <t>wong</t>
   </si>
   <si>
     <t>wongsai</t>
   </si>
   <si>
-    <t>woooiii</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
@@ -8050,21 +7168,9 @@
     <t>woy</t>
   </si>
   <si>
-    <t>woyy</t>
-  </si>
-  <si>
-    <t>wrga</t>
-  </si>
-  <si>
     <t>ws2xjlvdz9</t>
   </si>
   <si>
-    <t>wuihhh</t>
-  </si>
-  <si>
-    <t>wuizz</t>
-  </si>
-  <si>
     <t>wujud</t>
   </si>
   <si>
@@ -8080,39 +7186,18 @@
     <t>ya</t>
   </si>
   <si>
-    <t>yaa</t>
-  </si>
-  <si>
-    <t>yah</t>
-  </si>
-  <si>
     <t>yakin</t>
   </si>
   <si>
-    <t>yakk</t>
-  </si>
-  <si>
     <t>yang</t>
   </si>
   <si>
-    <t>ybs</t>
-  </si>
-  <si>
-    <t>yeaahhh</t>
-  </si>
-  <si>
     <t>yen</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>yesss</t>
-  </si>
-  <si>
-    <t>yg</t>
-  </si>
-  <si>
     <t>yim</t>
   </si>
   <si>
@@ -8122,28 +7207,16 @@
     <t>yng</t>
   </si>
   <si>
-    <t>yoiii</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
-    <t>yth</t>
-  </si>
-  <si>
     <t>yuk</t>
   </si>
   <si>
-    <t>yuks</t>
-  </si>
-  <si>
     <t>yunarto</t>
   </si>
   <si>
     <t>yusril</t>
-  </si>
-  <si>
-    <t>yuuk</t>
   </si>
   <si>
     <t>zalim</t>
@@ -8516,7 +7589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2716"/>
+  <dimension ref="A1:B2407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16596,7 +15669,7 @@
         <v>1008</v>
       </c>
       <c r="B1010" t="s">
-        <v>1009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -16604,7 +15677,7 @@
         <v>1009</v>
       </c>
       <c r="B1011" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -16612,7 +15685,7 @@
         <v>1010</v>
       </c>
       <c r="B1012" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -16620,7 +15693,7 @@
         <v>1011</v>
       </c>
       <c r="B1013" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -16628,7 +15701,7 @@
         <v>1012</v>
       </c>
       <c r="B1014" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -16636,7 +15709,7 @@
         <v>1013</v>
       </c>
       <c r="B1015" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -16644,7 +15717,7 @@
         <v>1014</v>
       </c>
       <c r="B1016" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
@@ -16652,7 +15725,7 @@
         <v>1015</v>
       </c>
       <c r="B1017" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -16660,7 +15733,7 @@
         <v>1016</v>
       </c>
       <c r="B1018" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -16668,7 +15741,7 @@
         <v>1017</v>
       </c>
       <c r="B1019" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
@@ -16676,7 +15749,7 @@
         <v>1018</v>
       </c>
       <c r="B1020" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
@@ -16684,7 +15757,7 @@
         <v>1019</v>
       </c>
       <c r="B1021" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -16692,7 +15765,7 @@
         <v>1020</v>
       </c>
       <c r="B1022" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -16700,7 +15773,7 @@
         <v>1021</v>
       </c>
       <c r="B1023" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -16708,7 +15781,7 @@
         <v>1022</v>
       </c>
       <c r="B1024" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -16716,7 +15789,7 @@
         <v>1023</v>
       </c>
       <c r="B1025" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -16724,7 +15797,7 @@
         <v>1024</v>
       </c>
       <c r="B1026" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -16732,7 +15805,7 @@
         <v>1025</v>
       </c>
       <c r="B1027" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
@@ -16740,7 +15813,7 @@
         <v>1026</v>
       </c>
       <c r="B1028" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
@@ -16748,7 +15821,7 @@
         <v>1027</v>
       </c>
       <c r="B1029" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -16756,7 +15829,7 @@
         <v>1028</v>
       </c>
       <c r="B1030" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
@@ -16764,7 +15837,7 @@
         <v>1029</v>
       </c>
       <c r="B1031" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
@@ -16772,7 +15845,7 @@
         <v>1030</v>
       </c>
       <c r="B1032" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -16780,7 +15853,7 @@
         <v>1031</v>
       </c>
       <c r="B1033" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
@@ -16788,7 +15861,7 @@
         <v>1032</v>
       </c>
       <c r="B1034" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -16796,7 +15869,7 @@
         <v>1033</v>
       </c>
       <c r="B1035" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -16804,7 +15877,7 @@
         <v>1034</v>
       </c>
       <c r="B1036" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
@@ -16812,7 +15885,7 @@
         <v>1035</v>
       </c>
       <c r="B1037" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -16820,7 +15893,7 @@
         <v>1036</v>
       </c>
       <c r="B1038" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
@@ -16828,7 +15901,7 @@
         <v>1037</v>
       </c>
       <c r="B1039" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -16836,7 +15909,7 @@
         <v>1038</v>
       </c>
       <c r="B1040" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
@@ -16844,7 +15917,7 @@
         <v>1039</v>
       </c>
       <c r="B1041" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -16852,7 +15925,7 @@
         <v>1040</v>
       </c>
       <c r="B1042" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -16860,7 +15933,7 @@
         <v>1041</v>
       </c>
       <c r="B1043" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -16868,7 +15941,7 @@
         <v>1042</v>
       </c>
       <c r="B1044" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -16876,7 +15949,7 @@
         <v>1043</v>
       </c>
       <c r="B1045" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -16884,7 +15957,7 @@
         <v>1044</v>
       </c>
       <c r="B1046" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -16892,7 +15965,7 @@
         <v>1045</v>
       </c>
       <c r="B1047" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
@@ -16900,7 +15973,7 @@
         <v>1046</v>
       </c>
       <c r="B1048" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -16908,7 +15981,7 @@
         <v>1047</v>
       </c>
       <c r="B1049" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
@@ -16916,7 +15989,7 @@
         <v>1048</v>
       </c>
       <c r="B1050" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -16924,7 +15997,7 @@
         <v>1049</v>
       </c>
       <c r="B1051" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
@@ -16932,7 +16005,7 @@
         <v>1050</v>
       </c>
       <c r="B1052" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -16940,7 +16013,7 @@
         <v>1051</v>
       </c>
       <c r="B1053" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -16948,7 +16021,7 @@
         <v>1052</v>
       </c>
       <c r="B1054" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -16956,7 +16029,7 @@
         <v>1053</v>
       </c>
       <c r="B1055" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -16964,7 +16037,7 @@
         <v>1054</v>
       </c>
       <c r="B1056" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -16972,7 +16045,7 @@
         <v>1055</v>
       </c>
       <c r="B1057" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -16980,7 +16053,7 @@
         <v>1056</v>
       </c>
       <c r="B1058" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -16988,7 +16061,7 @@
         <v>1057</v>
       </c>
       <c r="B1059" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -16996,7 +16069,7 @@
         <v>1058</v>
       </c>
       <c r="B1060" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -17004,7 +16077,7 @@
         <v>1059</v>
       </c>
       <c r="B1061" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -17012,7 +16085,7 @@
         <v>1060</v>
       </c>
       <c r="B1062" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -17020,7 +16093,7 @@
         <v>1061</v>
       </c>
       <c r="B1063" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -17028,7 +16101,7 @@
         <v>1062</v>
       </c>
       <c r="B1064" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
@@ -17036,7 +16109,7 @@
         <v>1063</v>
       </c>
       <c r="B1065" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -17044,7 +16117,7 @@
         <v>1064</v>
       </c>
       <c r="B1066" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -17052,7 +16125,7 @@
         <v>1065</v>
       </c>
       <c r="B1067" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -17060,7 +16133,7 @@
         <v>1066</v>
       </c>
       <c r="B1068" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -17068,7 +16141,7 @@
         <v>1067</v>
       </c>
       <c r="B1069" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -17076,7 +16149,7 @@
         <v>1068</v>
       </c>
       <c r="B1070" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
@@ -17084,7 +16157,7 @@
         <v>1069</v>
       </c>
       <c r="B1071" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -17092,7 +16165,7 @@
         <v>1070</v>
       </c>
       <c r="B1072" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -17100,7 +16173,7 @@
         <v>1071</v>
       </c>
       <c r="B1073" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -17108,7 +16181,7 @@
         <v>1072</v>
       </c>
       <c r="B1074" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -17116,7 +16189,7 @@
         <v>1073</v>
       </c>
       <c r="B1075" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -17124,7 +16197,7 @@
         <v>1074</v>
       </c>
       <c r="B1076" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -17132,7 +16205,7 @@
         <v>1075</v>
       </c>
       <c r="B1077" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -17140,7 +16213,7 @@
         <v>1076</v>
       </c>
       <c r="B1078" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -17148,7 +16221,7 @@
         <v>1077</v>
       </c>
       <c r="B1079" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -17156,7 +16229,7 @@
         <v>1078</v>
       </c>
       <c r="B1080" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -17164,7 +16237,7 @@
         <v>1079</v>
       </c>
       <c r="B1081" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -17172,7 +16245,7 @@
         <v>1080</v>
       </c>
       <c r="B1082" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -17180,7 +16253,7 @@
         <v>1081</v>
       </c>
       <c r="B1083" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -17188,7 +16261,7 @@
         <v>1082</v>
       </c>
       <c r="B1084" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -17196,7 +16269,7 @@
         <v>1083</v>
       </c>
       <c r="B1085" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -17204,7 +16277,7 @@
         <v>1084</v>
       </c>
       <c r="B1086" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -17212,7 +16285,7 @@
         <v>1085</v>
       </c>
       <c r="B1087" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
@@ -17220,7 +16293,7 @@
         <v>1086</v>
       </c>
       <c r="B1088" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -17228,7 +16301,7 @@
         <v>1087</v>
       </c>
       <c r="B1089" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -17236,7 +16309,7 @@
         <v>1088</v>
       </c>
       <c r="B1090" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -17244,7 +16317,7 @@
         <v>1089</v>
       </c>
       <c r="B1091" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -17252,7 +16325,7 @@
         <v>1090</v>
       </c>
       <c r="B1092" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -17260,7 +16333,7 @@
         <v>1091</v>
       </c>
       <c r="B1093" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -17268,7 +16341,7 @@
         <v>1092</v>
       </c>
       <c r="B1094" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -17276,7 +16349,7 @@
         <v>1093</v>
       </c>
       <c r="B1095" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
@@ -17284,7 +16357,7 @@
         <v>1094</v>
       </c>
       <c r="B1096" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
@@ -17292,7 +16365,7 @@
         <v>1095</v>
       </c>
       <c r="B1097" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
@@ -17300,7 +16373,7 @@
         <v>1096</v>
       </c>
       <c r="B1098" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -17308,7 +16381,7 @@
         <v>1097</v>
       </c>
       <c r="B1099" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -17316,7 +16389,7 @@
         <v>1098</v>
       </c>
       <c r="B1100" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -17324,7 +16397,7 @@
         <v>1099</v>
       </c>
       <c r="B1101" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -17332,7 +16405,7 @@
         <v>1100</v>
       </c>
       <c r="B1102" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -17340,7 +16413,7 @@
         <v>1101</v>
       </c>
       <c r="B1103" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
@@ -17348,7 +16421,7 @@
         <v>1102</v>
       </c>
       <c r="B1104" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
@@ -17356,7 +16429,7 @@
         <v>1103</v>
       </c>
       <c r="B1105" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -17364,7 +16437,7 @@
         <v>1104</v>
       </c>
       <c r="B1106" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -17372,7 +16445,7 @@
         <v>1105</v>
       </c>
       <c r="B1107" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -17380,7 +16453,7 @@
         <v>1106</v>
       </c>
       <c r="B1108" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
@@ -17388,7 +16461,7 @@
         <v>1107</v>
       </c>
       <c r="B1109" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -17396,7 +16469,7 @@
         <v>1108</v>
       </c>
       <c r="B1110" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -17404,7 +16477,7 @@
         <v>1109</v>
       </c>
       <c r="B1111" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -17412,7 +16485,7 @@
         <v>1110</v>
       </c>
       <c r="B1112" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
@@ -17420,7 +16493,7 @@
         <v>1111</v>
       </c>
       <c r="B1113" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -17428,7 +16501,7 @@
         <v>1112</v>
       </c>
       <c r="B1114" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
@@ -17436,7 +16509,7 @@
         <v>1113</v>
       </c>
       <c r="B1115" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -17444,7 +16517,7 @@
         <v>1114</v>
       </c>
       <c r="B1116" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
@@ -17452,7 +16525,7 @@
         <v>1115</v>
       </c>
       <c r="B1117" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -17460,7 +16533,7 @@
         <v>1116</v>
       </c>
       <c r="B1118" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
@@ -17468,7 +16541,7 @@
         <v>1117</v>
       </c>
       <c r="B1119" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -17476,7 +16549,7 @@
         <v>1118</v>
       </c>
       <c r="B1120" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -17484,7 +16557,7 @@
         <v>1119</v>
       </c>
       <c r="B1121" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
@@ -17492,7 +16565,7 @@
         <v>1120</v>
       </c>
       <c r="B1122" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -17500,7 +16573,7 @@
         <v>1121</v>
       </c>
       <c r="B1123" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -17508,7 +16581,7 @@
         <v>1122</v>
       </c>
       <c r="B1124" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
@@ -17516,7 +16589,7 @@
         <v>1123</v>
       </c>
       <c r="B1125" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
@@ -17524,7 +16597,7 @@
         <v>1124</v>
       </c>
       <c r="B1126" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -17532,7 +16605,7 @@
         <v>1125</v>
       </c>
       <c r="B1127" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -17540,7 +16613,7 @@
         <v>1126</v>
       </c>
       <c r="B1128" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
@@ -17548,7 +16621,7 @@
         <v>1127</v>
       </c>
       <c r="B1129" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -17556,7 +16629,7 @@
         <v>1128</v>
       </c>
       <c r="B1130" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -17564,7 +16637,7 @@
         <v>1129</v>
       </c>
       <c r="B1131" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -17572,7 +16645,7 @@
         <v>1130</v>
       </c>
       <c r="B1132" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -17580,7 +16653,7 @@
         <v>1131</v>
       </c>
       <c r="B1133" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -17588,7 +16661,7 @@
         <v>1132</v>
       </c>
       <c r="B1134" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
@@ -17596,7 +16669,7 @@
         <v>1133</v>
       </c>
       <c r="B1135" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -17604,7 +16677,7 @@
         <v>1134</v>
       </c>
       <c r="B1136" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -17612,7 +16685,7 @@
         <v>1135</v>
       </c>
       <c r="B1137" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
@@ -17620,7 +16693,7 @@
         <v>1136</v>
       </c>
       <c r="B1138" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -17628,7 +16701,7 @@
         <v>1137</v>
       </c>
       <c r="B1139" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -17636,7 +16709,7 @@
         <v>1138</v>
       </c>
       <c r="B1140" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
@@ -17644,7 +16717,7 @@
         <v>1139</v>
       </c>
       <c r="B1141" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -17652,7 +16725,7 @@
         <v>1140</v>
       </c>
       <c r="B1142" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
@@ -17660,7 +16733,7 @@
         <v>1141</v>
       </c>
       <c r="B1143" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
@@ -17668,7 +16741,7 @@
         <v>1142</v>
       </c>
       <c r="B1144" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -17676,7 +16749,7 @@
         <v>1143</v>
       </c>
       <c r="B1145" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -17684,7 +16757,7 @@
         <v>1144</v>
       </c>
       <c r="B1146" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
@@ -17692,7 +16765,7 @@
         <v>1145</v>
       </c>
       <c r="B1147" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
@@ -17700,7 +16773,7 @@
         <v>1146</v>
       </c>
       <c r="B1148" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
@@ -17708,7 +16781,7 @@
         <v>1147</v>
       </c>
       <c r="B1149" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -17716,7 +16789,7 @@
         <v>1148</v>
       </c>
       <c r="B1150" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
@@ -17724,7 +16797,7 @@
         <v>1149</v>
       </c>
       <c r="B1151" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -17732,7 +16805,7 @@
         <v>1150</v>
       </c>
       <c r="B1152" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
@@ -17740,7 +16813,7 @@
         <v>1151</v>
       </c>
       <c r="B1153" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
@@ -17748,7 +16821,7 @@
         <v>1152</v>
       </c>
       <c r="B1154" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
@@ -17756,7 +16829,7 @@
         <v>1153</v>
       </c>
       <c r="B1155" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
@@ -17764,7 +16837,7 @@
         <v>1154</v>
       </c>
       <c r="B1156" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
@@ -17772,7 +16845,7 @@
         <v>1155</v>
       </c>
       <c r="B1157" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
@@ -17780,7 +16853,7 @@
         <v>1156</v>
       </c>
       <c r="B1158" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -17788,7 +16861,7 @@
         <v>1157</v>
       </c>
       <c r="B1159" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
@@ -17796,7 +16869,7 @@
         <v>1158</v>
       </c>
       <c r="B1160" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
@@ -17804,7 +16877,7 @@
         <v>1159</v>
       </c>
       <c r="B1161" t="s">
-        <v>0</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -27773,2478 +26846,6 @@
       </c>
       <c r="B2407" t="s">
         <v>2405</v>
-      </c>
-    </row>
-    <row r="2408" spans="1:2">
-      <c r="A2408" s="1">
-        <v>2406</v>
-      </c>
-      <c r="B2408" t="s">
-        <v>2406</v>
-      </c>
-    </row>
-    <row r="2409" spans="1:2">
-      <c r="A2409" s="1">
-        <v>2407</v>
-      </c>
-      <c r="B2409" t="s">
-        <v>2407</v>
-      </c>
-    </row>
-    <row r="2410" spans="1:2">
-      <c r="A2410" s="1">
-        <v>2408</v>
-      </c>
-      <c r="B2410" t="s">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="2411" spans="1:2">
-      <c r="A2411" s="1">
-        <v>2409</v>
-      </c>
-      <c r="B2411" t="s">
-        <v>2409</v>
-      </c>
-    </row>
-    <row r="2412" spans="1:2">
-      <c r="A2412" s="1">
-        <v>2410</v>
-      </c>
-      <c r="B2412" t="s">
-        <v>2410</v>
-      </c>
-    </row>
-    <row r="2413" spans="1:2">
-      <c r="A2413" s="1">
-        <v>2411</v>
-      </c>
-      <c r="B2413" t="s">
-        <v>2411</v>
-      </c>
-    </row>
-    <row r="2414" spans="1:2">
-      <c r="A2414" s="1">
-        <v>2412</v>
-      </c>
-      <c r="B2414" t="s">
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="2415" spans="1:2">
-      <c r="A2415" s="1">
-        <v>2413</v>
-      </c>
-      <c r="B2415" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="2416" spans="1:2">
-      <c r="A2416" s="1">
-        <v>2414</v>
-      </c>
-      <c r="B2416" t="s">
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="2417" spans="1:2">
-      <c r="A2417" s="1">
-        <v>2415</v>
-      </c>
-      <c r="B2417" t="s">
-        <v>2415</v>
-      </c>
-    </row>
-    <row r="2418" spans="1:2">
-      <c r="A2418" s="1">
-        <v>2416</v>
-      </c>
-      <c r="B2418" t="s">
-        <v>2416</v>
-      </c>
-    </row>
-    <row r="2419" spans="1:2">
-      <c r="A2419" s="1">
-        <v>2417</v>
-      </c>
-      <c r="B2419" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="2420" spans="1:2">
-      <c r="A2420" s="1">
-        <v>2418</v>
-      </c>
-      <c r="B2420" t="s">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="2421" spans="1:2">
-      <c r="A2421" s="1">
-        <v>2419</v>
-      </c>
-      <c r="B2421" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="2422" spans="1:2">
-      <c r="A2422" s="1">
-        <v>2420</v>
-      </c>
-      <c r="B2422" t="s">
-        <v>2420</v>
-      </c>
-    </row>
-    <row r="2423" spans="1:2">
-      <c r="A2423" s="1">
-        <v>2421</v>
-      </c>
-      <c r="B2423" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="2424" spans="1:2">
-      <c r="A2424" s="1">
-        <v>2422</v>
-      </c>
-      <c r="B2424" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="2425" spans="1:2">
-      <c r="A2425" s="1">
-        <v>2423</v>
-      </c>
-      <c r="B2425" t="s">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="2426" spans="1:2">
-      <c r="A2426" s="1">
-        <v>2424</v>
-      </c>
-      <c r="B2426" t="s">
-        <v>2424</v>
-      </c>
-    </row>
-    <row r="2427" spans="1:2">
-      <c r="A2427" s="1">
-        <v>2425</v>
-      </c>
-      <c r="B2427" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="2428" spans="1:2">
-      <c r="A2428" s="1">
-        <v>2426</v>
-      </c>
-      <c r="B2428" t="s">
-        <v>2426</v>
-      </c>
-    </row>
-    <row r="2429" spans="1:2">
-      <c r="A2429" s="1">
-        <v>2427</v>
-      </c>
-      <c r="B2429" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="2430" spans="1:2">
-      <c r="A2430" s="1">
-        <v>2428</v>
-      </c>
-      <c r="B2430" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="2431" spans="1:2">
-      <c r="A2431" s="1">
-        <v>2429</v>
-      </c>
-      <c r="B2431" t="s">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="2432" spans="1:2">
-      <c r="A2432" s="1">
-        <v>2430</v>
-      </c>
-      <c r="B2432" t="s">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="2433" spans="1:2">
-      <c r="A2433" s="1">
-        <v>2431</v>
-      </c>
-      <c r="B2433" t="s">
-        <v>2431</v>
-      </c>
-    </row>
-    <row r="2434" spans="1:2">
-      <c r="A2434" s="1">
-        <v>2432</v>
-      </c>
-      <c r="B2434" t="s">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="2435" spans="1:2">
-      <c r="A2435" s="1">
-        <v>2433</v>
-      </c>
-      <c r="B2435" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="2436" spans="1:2">
-      <c r="A2436" s="1">
-        <v>2434</v>
-      </c>
-      <c r="B2436" t="s">
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="2437" spans="1:2">
-      <c r="A2437" s="1">
-        <v>2435</v>
-      </c>
-      <c r="B2437" t="s">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="2438" spans="1:2">
-      <c r="A2438" s="1">
-        <v>2436</v>
-      </c>
-      <c r="B2438" t="s">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="2439" spans="1:2">
-      <c r="A2439" s="1">
-        <v>2437</v>
-      </c>
-      <c r="B2439" t="s">
-        <v>2437</v>
-      </c>
-    </row>
-    <row r="2440" spans="1:2">
-      <c r="A2440" s="1">
-        <v>2438</v>
-      </c>
-      <c r="B2440" t="s">
-        <v>2438</v>
-      </c>
-    </row>
-    <row r="2441" spans="1:2">
-      <c r="A2441" s="1">
-        <v>2439</v>
-      </c>
-      <c r="B2441" t="s">
-        <v>2439</v>
-      </c>
-    </row>
-    <row r="2442" spans="1:2">
-      <c r="A2442" s="1">
-        <v>2440</v>
-      </c>
-      <c r="B2442" t="s">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="2443" spans="1:2">
-      <c r="A2443" s="1">
-        <v>2441</v>
-      </c>
-      <c r="B2443" t="s">
-        <v>2441</v>
-      </c>
-    </row>
-    <row r="2444" spans="1:2">
-      <c r="A2444" s="1">
-        <v>2442</v>
-      </c>
-      <c r="B2444" t="s">
-        <v>2442</v>
-      </c>
-    </row>
-    <row r="2445" spans="1:2">
-      <c r="A2445" s="1">
-        <v>2443</v>
-      </c>
-      <c r="B2445" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="2446" spans="1:2">
-      <c r="A2446" s="1">
-        <v>2444</v>
-      </c>
-      <c r="B2446" t="s">
-        <v>2444</v>
-      </c>
-    </row>
-    <row r="2447" spans="1:2">
-      <c r="A2447" s="1">
-        <v>2445</v>
-      </c>
-      <c r="B2447" t="s">
-        <v>2445</v>
-      </c>
-    </row>
-    <row r="2448" spans="1:2">
-      <c r="A2448" s="1">
-        <v>2446</v>
-      </c>
-      <c r="B2448" t="s">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="2449" spans="1:2">
-      <c r="A2449" s="1">
-        <v>2447</v>
-      </c>
-      <c r="B2449" t="s">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="2450" spans="1:2">
-      <c r="A2450" s="1">
-        <v>2448</v>
-      </c>
-      <c r="B2450" t="s">
-        <v>2448</v>
-      </c>
-    </row>
-    <row r="2451" spans="1:2">
-      <c r="A2451" s="1">
-        <v>2449</v>
-      </c>
-      <c r="B2451" t="s">
-        <v>2449</v>
-      </c>
-    </row>
-    <row r="2452" spans="1:2">
-      <c r="A2452" s="1">
-        <v>2450</v>
-      </c>
-      <c r="B2452" t="s">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="2453" spans="1:2">
-      <c r="A2453" s="1">
-        <v>2451</v>
-      </c>
-      <c r="B2453" t="s">
-        <v>2451</v>
-      </c>
-    </row>
-    <row r="2454" spans="1:2">
-      <c r="A2454" s="1">
-        <v>2452</v>
-      </c>
-      <c r="B2454" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="2455" spans="1:2">
-      <c r="A2455" s="1">
-        <v>2453</v>
-      </c>
-      <c r="B2455" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="2456" spans="1:2">
-      <c r="A2456" s="1">
-        <v>2454</v>
-      </c>
-      <c r="B2456" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="2457" spans="1:2">
-      <c r="A2457" s="1">
-        <v>2455</v>
-      </c>
-      <c r="B2457" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="2458" spans="1:2">
-      <c r="A2458" s="1">
-        <v>2456</v>
-      </c>
-      <c r="B2458" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2459" spans="1:2">
-      <c r="A2459" s="1">
-        <v>2457</v>
-      </c>
-      <c r="B2459" t="s">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="2460" spans="1:2">
-      <c r="A2460" s="1">
-        <v>2458</v>
-      </c>
-      <c r="B2460" t="s">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="2461" spans="1:2">
-      <c r="A2461" s="1">
-        <v>2459</v>
-      </c>
-      <c r="B2461" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="2462" spans="1:2">
-      <c r="A2462" s="1">
-        <v>2460</v>
-      </c>
-      <c r="B2462" t="s">
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="2463" spans="1:2">
-      <c r="A2463" s="1">
-        <v>2461</v>
-      </c>
-      <c r="B2463" t="s">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="2464" spans="1:2">
-      <c r="A2464" s="1">
-        <v>2462</v>
-      </c>
-      <c r="B2464" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="2465" spans="1:2">
-      <c r="A2465" s="1">
-        <v>2463</v>
-      </c>
-      <c r="B2465" t="s">
-        <v>2463</v>
-      </c>
-    </row>
-    <row r="2466" spans="1:2">
-      <c r="A2466" s="1">
-        <v>2464</v>
-      </c>
-      <c r="B2466" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="2467" spans="1:2">
-      <c r="A2467" s="1">
-        <v>2465</v>
-      </c>
-      <c r="B2467" t="s">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="2468" spans="1:2">
-      <c r="A2468" s="1">
-        <v>2466</v>
-      </c>
-      <c r="B2468" t="s">
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="2469" spans="1:2">
-      <c r="A2469" s="1">
-        <v>2467</v>
-      </c>
-      <c r="B2469" t="s">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="2470" spans="1:2">
-      <c r="A2470" s="1">
-        <v>2468</v>
-      </c>
-      <c r="B2470" t="s">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="2471" spans="1:2">
-      <c r="A2471" s="1">
-        <v>2469</v>
-      </c>
-      <c r="B2471" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="2472" spans="1:2">
-      <c r="A2472" s="1">
-        <v>2470</v>
-      </c>
-      <c r="B2472" t="s">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="2473" spans="1:2">
-      <c r="A2473" s="1">
-        <v>2471</v>
-      </c>
-      <c r="B2473" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="2474" spans="1:2">
-      <c r="A2474" s="1">
-        <v>2472</v>
-      </c>
-      <c r="B2474" t="s">
-        <v>2472</v>
-      </c>
-    </row>
-    <row r="2475" spans="1:2">
-      <c r="A2475" s="1">
-        <v>2473</v>
-      </c>
-      <c r="B2475" t="s">
-        <v>2473</v>
-      </c>
-    </row>
-    <row r="2476" spans="1:2">
-      <c r="A2476" s="1">
-        <v>2474</v>
-      </c>
-      <c r="B2476" t="s">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="2477" spans="1:2">
-      <c r="A2477" s="1">
-        <v>2475</v>
-      </c>
-      <c r="B2477" t="s">
-        <v>2475</v>
-      </c>
-    </row>
-    <row r="2478" spans="1:2">
-      <c r="A2478" s="1">
-        <v>2476</v>
-      </c>
-      <c r="B2478" t="s">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="2479" spans="1:2">
-      <c r="A2479" s="1">
-        <v>2477</v>
-      </c>
-      <c r="B2479" t="s">
-        <v>2477</v>
-      </c>
-    </row>
-    <row r="2480" spans="1:2">
-      <c r="A2480" s="1">
-        <v>2478</v>
-      </c>
-      <c r="B2480" t="s">
-        <v>2478</v>
-      </c>
-    </row>
-    <row r="2481" spans="1:2">
-      <c r="A2481" s="1">
-        <v>2479</v>
-      </c>
-      <c r="B2481" t="s">
-        <v>2479</v>
-      </c>
-    </row>
-    <row r="2482" spans="1:2">
-      <c r="A2482" s="1">
-        <v>2480</v>
-      </c>
-      <c r="B2482" t="s">
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="2483" spans="1:2">
-      <c r="A2483" s="1">
-        <v>2481</v>
-      </c>
-      <c r="B2483" t="s">
-        <v>2481</v>
-      </c>
-    </row>
-    <row r="2484" spans="1:2">
-      <c r="A2484" s="1">
-        <v>2482</v>
-      </c>
-      <c r="B2484" t="s">
-        <v>2482</v>
-      </c>
-    </row>
-    <row r="2485" spans="1:2">
-      <c r="A2485" s="1">
-        <v>2483</v>
-      </c>
-      <c r="B2485" t="s">
-        <v>2483</v>
-      </c>
-    </row>
-    <row r="2486" spans="1:2">
-      <c r="A2486" s="1">
-        <v>2484</v>
-      </c>
-      <c r="B2486" t="s">
-        <v>2484</v>
-      </c>
-    </row>
-    <row r="2487" spans="1:2">
-      <c r="A2487" s="1">
-        <v>2485</v>
-      </c>
-      <c r="B2487" t="s">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="2488" spans="1:2">
-      <c r="A2488" s="1">
-        <v>2486</v>
-      </c>
-      <c r="B2488" t="s">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="2489" spans="1:2">
-      <c r="A2489" s="1">
-        <v>2487</v>
-      </c>
-      <c r="B2489" t="s">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="2490" spans="1:2">
-      <c r="A2490" s="1">
-        <v>2488</v>
-      </c>
-      <c r="B2490" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="2491" spans="1:2">
-      <c r="A2491" s="1">
-        <v>2489</v>
-      </c>
-      <c r="B2491" t="s">
-        <v>2489</v>
-      </c>
-    </row>
-    <row r="2492" spans="1:2">
-      <c r="A2492" s="1">
-        <v>2490</v>
-      </c>
-      <c r="B2492" t="s">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="2493" spans="1:2">
-      <c r="A2493" s="1">
-        <v>2491</v>
-      </c>
-      <c r="B2493" t="s">
-        <v>2491</v>
-      </c>
-    </row>
-    <row r="2494" spans="1:2">
-      <c r="A2494" s="1">
-        <v>2492</v>
-      </c>
-      <c r="B2494" t="s">
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="2495" spans="1:2">
-      <c r="A2495" s="1">
-        <v>2493</v>
-      </c>
-      <c r="B2495" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="2496" spans="1:2">
-      <c r="A2496" s="1">
-        <v>2494</v>
-      </c>
-      <c r="B2496" t="s">
-        <v>2494</v>
-      </c>
-    </row>
-    <row r="2497" spans="1:2">
-      <c r="A2497" s="1">
-        <v>2495</v>
-      </c>
-      <c r="B2497" t="s">
-        <v>2495</v>
-      </c>
-    </row>
-    <row r="2498" spans="1:2">
-      <c r="A2498" s="1">
-        <v>2496</v>
-      </c>
-      <c r="B2498" t="s">
-        <v>2496</v>
-      </c>
-    </row>
-    <row r="2499" spans="1:2">
-      <c r="A2499" s="1">
-        <v>2497</v>
-      </c>
-      <c r="B2499" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="2500" spans="1:2">
-      <c r="A2500" s="1">
-        <v>2498</v>
-      </c>
-      <c r="B2500" t="s">
-        <v>2498</v>
-      </c>
-    </row>
-    <row r="2501" spans="1:2">
-      <c r="A2501" s="1">
-        <v>2499</v>
-      </c>
-      <c r="B2501" t="s">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="2502" spans="1:2">
-      <c r="A2502" s="1">
-        <v>2500</v>
-      </c>
-      <c r="B2502" t="s">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="2503" spans="1:2">
-      <c r="A2503" s="1">
-        <v>2501</v>
-      </c>
-      <c r="B2503" t="s">
-        <v>2501</v>
-      </c>
-    </row>
-    <row r="2504" spans="1:2">
-      <c r="A2504" s="1">
-        <v>2502</v>
-      </c>
-      <c r="B2504" t="s">
-        <v>2502</v>
-      </c>
-    </row>
-    <row r="2505" spans="1:2">
-      <c r="A2505" s="1">
-        <v>2503</v>
-      </c>
-      <c r="B2505" t="s">
-        <v>2503</v>
-      </c>
-    </row>
-    <row r="2506" spans="1:2">
-      <c r="A2506" s="1">
-        <v>2504</v>
-      </c>
-      <c r="B2506" t="s">
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="2507" spans="1:2">
-      <c r="A2507" s="1">
-        <v>2505</v>
-      </c>
-      <c r="B2507" t="s">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="2508" spans="1:2">
-      <c r="A2508" s="1">
-        <v>2506</v>
-      </c>
-      <c r="B2508" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="2509" spans="1:2">
-      <c r="A2509" s="1">
-        <v>2507</v>
-      </c>
-      <c r="B2509" t="s">
-        <v>2507</v>
-      </c>
-    </row>
-    <row r="2510" spans="1:2">
-      <c r="A2510" s="1">
-        <v>2508</v>
-      </c>
-      <c r="B2510" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="2511" spans="1:2">
-      <c r="A2511" s="1">
-        <v>2509</v>
-      </c>
-      <c r="B2511" t="s">
-        <v>2509</v>
-      </c>
-    </row>
-    <row r="2512" spans="1:2">
-      <c r="A2512" s="1">
-        <v>2510</v>
-      </c>
-      <c r="B2512" t="s">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="2513" spans="1:2">
-      <c r="A2513" s="1">
-        <v>2511</v>
-      </c>
-      <c r="B2513" t="s">
-        <v>2511</v>
-      </c>
-    </row>
-    <row r="2514" spans="1:2">
-      <c r="A2514" s="1">
-        <v>2512</v>
-      </c>
-      <c r="B2514" t="s">
-        <v>2512</v>
-      </c>
-    </row>
-    <row r="2515" spans="1:2">
-      <c r="A2515" s="1">
-        <v>2513</v>
-      </c>
-      <c r="B2515" t="s">
-        <v>2513</v>
-      </c>
-    </row>
-    <row r="2516" spans="1:2">
-      <c r="A2516" s="1">
-        <v>2514</v>
-      </c>
-      <c r="B2516" t="s">
-        <v>2514</v>
-      </c>
-    </row>
-    <row r="2517" spans="1:2">
-      <c r="A2517" s="1">
-        <v>2515</v>
-      </c>
-      <c r="B2517" t="s">
-        <v>2515</v>
-      </c>
-    </row>
-    <row r="2518" spans="1:2">
-      <c r="A2518" s="1">
-        <v>2516</v>
-      </c>
-      <c r="B2518" t="s">
-        <v>2516</v>
-      </c>
-    </row>
-    <row r="2519" spans="1:2">
-      <c r="A2519" s="1">
-        <v>2517</v>
-      </c>
-      <c r="B2519" t="s">
-        <v>2517</v>
-      </c>
-    </row>
-    <row r="2520" spans="1:2">
-      <c r="A2520" s="1">
-        <v>2518</v>
-      </c>
-      <c r="B2520" t="s">
-        <v>2518</v>
-      </c>
-    </row>
-    <row r="2521" spans="1:2">
-      <c r="A2521" s="1">
-        <v>2519</v>
-      </c>
-      <c r="B2521" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="2522" spans="1:2">
-      <c r="A2522" s="1">
-        <v>2520</v>
-      </c>
-      <c r="B2522" t="s">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="2523" spans="1:2">
-      <c r="A2523" s="1">
-        <v>2521</v>
-      </c>
-      <c r="B2523" t="s">
-        <v>2521</v>
-      </c>
-    </row>
-    <row r="2524" spans="1:2">
-      <c r="A2524" s="1">
-        <v>2522</v>
-      </c>
-      <c r="B2524" t="s">
-        <v>2522</v>
-      </c>
-    </row>
-    <row r="2525" spans="1:2">
-      <c r="A2525" s="1">
-        <v>2523</v>
-      </c>
-      <c r="B2525" t="s">
-        <v>2523</v>
-      </c>
-    </row>
-    <row r="2526" spans="1:2">
-      <c r="A2526" s="1">
-        <v>2524</v>
-      </c>
-      <c r="B2526" t="s">
-        <v>2524</v>
-      </c>
-    </row>
-    <row r="2527" spans="1:2">
-      <c r="A2527" s="1">
-        <v>2525</v>
-      </c>
-      <c r="B2527" t="s">
-        <v>2525</v>
-      </c>
-    </row>
-    <row r="2528" spans="1:2">
-      <c r="A2528" s="1">
-        <v>2526</v>
-      </c>
-      <c r="B2528" t="s">
-        <v>2526</v>
-      </c>
-    </row>
-    <row r="2529" spans="1:2">
-      <c r="A2529" s="1">
-        <v>2527</v>
-      </c>
-      <c r="B2529" t="s">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="2530" spans="1:2">
-      <c r="A2530" s="1">
-        <v>2528</v>
-      </c>
-      <c r="B2530" t="s">
-        <v>2528</v>
-      </c>
-    </row>
-    <row r="2531" spans="1:2">
-      <c r="A2531" s="1">
-        <v>2529</v>
-      </c>
-      <c r="B2531" t="s">
-        <v>2529</v>
-      </c>
-    </row>
-    <row r="2532" spans="1:2">
-      <c r="A2532" s="1">
-        <v>2530</v>
-      </c>
-      <c r="B2532" t="s">
-        <v>2530</v>
-      </c>
-    </row>
-    <row r="2533" spans="1:2">
-      <c r="A2533" s="1">
-        <v>2531</v>
-      </c>
-      <c r="B2533" t="s">
-        <v>2531</v>
-      </c>
-    </row>
-    <row r="2534" spans="1:2">
-      <c r="A2534" s="1">
-        <v>2532</v>
-      </c>
-      <c r="B2534" t="s">
-        <v>2532</v>
-      </c>
-    </row>
-    <row r="2535" spans="1:2">
-      <c r="A2535" s="1">
-        <v>2533</v>
-      </c>
-      <c r="B2535" t="s">
-        <v>2533</v>
-      </c>
-    </row>
-    <row r="2536" spans="1:2">
-      <c r="A2536" s="1">
-        <v>2534</v>
-      </c>
-      <c r="B2536" t="s">
-        <v>2534</v>
-      </c>
-    </row>
-    <row r="2537" spans="1:2">
-      <c r="A2537" s="1">
-        <v>2535</v>
-      </c>
-      <c r="B2537" t="s">
-        <v>2535</v>
-      </c>
-    </row>
-    <row r="2538" spans="1:2">
-      <c r="A2538" s="1">
-        <v>2536</v>
-      </c>
-      <c r="B2538" t="s">
-        <v>2536</v>
-      </c>
-    </row>
-    <row r="2539" spans="1:2">
-      <c r="A2539" s="1">
-        <v>2537</v>
-      </c>
-      <c r="B2539" t="s">
-        <v>2537</v>
-      </c>
-    </row>
-    <row r="2540" spans="1:2">
-      <c r="A2540" s="1">
-        <v>2538</v>
-      </c>
-      <c r="B2540" t="s">
-        <v>2538</v>
-      </c>
-    </row>
-    <row r="2541" spans="1:2">
-      <c r="A2541" s="1">
-        <v>2539</v>
-      </c>
-      <c r="B2541" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="2542" spans="1:2">
-      <c r="A2542" s="1">
-        <v>2540</v>
-      </c>
-      <c r="B2542" t="s">
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="2543" spans="1:2">
-      <c r="A2543" s="1">
-        <v>2541</v>
-      </c>
-      <c r="B2543" t="s">
-        <v>2541</v>
-      </c>
-    </row>
-    <row r="2544" spans="1:2">
-      <c r="A2544" s="1">
-        <v>2542</v>
-      </c>
-      <c r="B2544" t="s">
-        <v>2542</v>
-      </c>
-    </row>
-    <row r="2545" spans="1:2">
-      <c r="A2545" s="1">
-        <v>2543</v>
-      </c>
-      <c r="B2545" t="s">
-        <v>2543</v>
-      </c>
-    </row>
-    <row r="2546" spans="1:2">
-      <c r="A2546" s="1">
-        <v>2544</v>
-      </c>
-      <c r="B2546" t="s">
-        <v>2544</v>
-      </c>
-    </row>
-    <row r="2547" spans="1:2">
-      <c r="A2547" s="1">
-        <v>2545</v>
-      </c>
-      <c r="B2547" t="s">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="2548" spans="1:2">
-      <c r="A2548" s="1">
-        <v>2546</v>
-      </c>
-      <c r="B2548" t="s">
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="2549" spans="1:2">
-      <c r="A2549" s="1">
-        <v>2547</v>
-      </c>
-      <c r="B2549" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="2550" spans="1:2">
-      <c r="A2550" s="1">
-        <v>2548</v>
-      </c>
-      <c r="B2550" t="s">
-        <v>2548</v>
-      </c>
-    </row>
-    <row r="2551" spans="1:2">
-      <c r="A2551" s="1">
-        <v>2549</v>
-      </c>
-      <c r="B2551" t="s">
-        <v>2549</v>
-      </c>
-    </row>
-    <row r="2552" spans="1:2">
-      <c r="A2552" s="1">
-        <v>2550</v>
-      </c>
-      <c r="B2552" t="s">
-        <v>2550</v>
-      </c>
-    </row>
-    <row r="2553" spans="1:2">
-      <c r="A2553" s="1">
-        <v>2551</v>
-      </c>
-      <c r="B2553" t="s">
-        <v>2551</v>
-      </c>
-    </row>
-    <row r="2554" spans="1:2">
-      <c r="A2554" s="1">
-        <v>2552</v>
-      </c>
-      <c r="B2554" t="s">
-        <v>2552</v>
-      </c>
-    </row>
-    <row r="2555" spans="1:2">
-      <c r="A2555" s="1">
-        <v>2553</v>
-      </c>
-      <c r="B2555" t="s">
-        <v>2553</v>
-      </c>
-    </row>
-    <row r="2556" spans="1:2">
-      <c r="A2556" s="1">
-        <v>2554</v>
-      </c>
-      <c r="B2556" t="s">
-        <v>2554</v>
-      </c>
-    </row>
-    <row r="2557" spans="1:2">
-      <c r="A2557" s="1">
-        <v>2555</v>
-      </c>
-      <c r="B2557" t="s">
-        <v>2555</v>
-      </c>
-    </row>
-    <row r="2558" spans="1:2">
-      <c r="A2558" s="1">
-        <v>2556</v>
-      </c>
-      <c r="B2558" t="s">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="2559" spans="1:2">
-      <c r="A2559" s="1">
-        <v>2557</v>
-      </c>
-      <c r="B2559" t="s">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="2560" spans="1:2">
-      <c r="A2560" s="1">
-        <v>2558</v>
-      </c>
-      <c r="B2560" t="s">
-        <v>2558</v>
-      </c>
-    </row>
-    <row r="2561" spans="1:2">
-      <c r="A2561" s="1">
-        <v>2559</v>
-      </c>
-      <c r="B2561" t="s">
-        <v>2559</v>
-      </c>
-    </row>
-    <row r="2562" spans="1:2">
-      <c r="A2562" s="1">
-        <v>2560</v>
-      </c>
-      <c r="B2562" t="s">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="2563" spans="1:2">
-      <c r="A2563" s="1">
-        <v>2561</v>
-      </c>
-      <c r="B2563" t="s">
-        <v>2561</v>
-      </c>
-    </row>
-    <row r="2564" spans="1:2">
-      <c r="A2564" s="1">
-        <v>2562</v>
-      </c>
-      <c r="B2564" t="s">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="2565" spans="1:2">
-      <c r="A2565" s="1">
-        <v>2563</v>
-      </c>
-      <c r="B2565" t="s">
-        <v>2563</v>
-      </c>
-    </row>
-    <row r="2566" spans="1:2">
-      <c r="A2566" s="1">
-        <v>2564</v>
-      </c>
-      <c r="B2566" t="s">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="2567" spans="1:2">
-      <c r="A2567" s="1">
-        <v>2565</v>
-      </c>
-      <c r="B2567" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="2568" spans="1:2">
-      <c r="A2568" s="1">
-        <v>2566</v>
-      </c>
-      <c r="B2568" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="2569" spans="1:2">
-      <c r="A2569" s="1">
-        <v>2567</v>
-      </c>
-      <c r="B2569" t="s">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="2570" spans="1:2">
-      <c r="A2570" s="1">
-        <v>2568</v>
-      </c>
-      <c r="B2570" t="s">
-        <v>2568</v>
-      </c>
-    </row>
-    <row r="2571" spans="1:2">
-      <c r="A2571" s="1">
-        <v>2569</v>
-      </c>
-      <c r="B2571" t="s">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="2572" spans="1:2">
-      <c r="A2572" s="1">
-        <v>2570</v>
-      </c>
-      <c r="B2572" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="2573" spans="1:2">
-      <c r="A2573" s="1">
-        <v>2571</v>
-      </c>
-      <c r="B2573" t="s">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="2574" spans="1:2">
-      <c r="A2574" s="1">
-        <v>2572</v>
-      </c>
-      <c r="B2574" t="s">
-        <v>2572</v>
-      </c>
-    </row>
-    <row r="2575" spans="1:2">
-      <c r="A2575" s="1">
-        <v>2573</v>
-      </c>
-      <c r="B2575" t="s">
-        <v>2573</v>
-      </c>
-    </row>
-    <row r="2576" spans="1:2">
-      <c r="A2576" s="1">
-        <v>2574</v>
-      </c>
-      <c r="B2576" t="s">
-        <v>2574</v>
-      </c>
-    </row>
-    <row r="2577" spans="1:2">
-      <c r="A2577" s="1">
-        <v>2575</v>
-      </c>
-      <c r="B2577" t="s">
-        <v>2575</v>
-      </c>
-    </row>
-    <row r="2578" spans="1:2">
-      <c r="A2578" s="1">
-        <v>2576</v>
-      </c>
-      <c r="B2578" t="s">
-        <v>2576</v>
-      </c>
-    </row>
-    <row r="2579" spans="1:2">
-      <c r="A2579" s="1">
-        <v>2577</v>
-      </c>
-      <c r="B2579" t="s">
-        <v>2577</v>
-      </c>
-    </row>
-    <row r="2580" spans="1:2">
-      <c r="A2580" s="1">
-        <v>2578</v>
-      </c>
-      <c r="B2580" t="s">
-        <v>2578</v>
-      </c>
-    </row>
-    <row r="2581" spans="1:2">
-      <c r="A2581" s="1">
-        <v>2579</v>
-      </c>
-      <c r="B2581" t="s">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="2582" spans="1:2">
-      <c r="A2582" s="1">
-        <v>2580</v>
-      </c>
-      <c r="B2582" t="s">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="2583" spans="1:2">
-      <c r="A2583" s="1">
-        <v>2581</v>
-      </c>
-      <c r="B2583" t="s">
-        <v>2581</v>
-      </c>
-    </row>
-    <row r="2584" spans="1:2">
-      <c r="A2584" s="1">
-        <v>2582</v>
-      </c>
-      <c r="B2584" t="s">
-        <v>2582</v>
-      </c>
-    </row>
-    <row r="2585" spans="1:2">
-      <c r="A2585" s="1">
-        <v>2583</v>
-      </c>
-      <c r="B2585" t="s">
-        <v>2583</v>
-      </c>
-    </row>
-    <row r="2586" spans="1:2">
-      <c r="A2586" s="1">
-        <v>2584</v>
-      </c>
-      <c r="B2586" t="s">
-        <v>2584</v>
-      </c>
-    </row>
-    <row r="2587" spans="1:2">
-      <c r="A2587" s="1">
-        <v>2585</v>
-      </c>
-      <c r="B2587" t="s">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="2588" spans="1:2">
-      <c r="A2588" s="1">
-        <v>2586</v>
-      </c>
-      <c r="B2588" t="s">
-        <v>2586</v>
-      </c>
-    </row>
-    <row r="2589" spans="1:2">
-      <c r="A2589" s="1">
-        <v>2587</v>
-      </c>
-      <c r="B2589" t="s">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="2590" spans="1:2">
-      <c r="A2590" s="1">
-        <v>2588</v>
-      </c>
-      <c r="B2590" t="s">
-        <v>2588</v>
-      </c>
-    </row>
-    <row r="2591" spans="1:2">
-      <c r="A2591" s="1">
-        <v>2589</v>
-      </c>
-      <c r="B2591" t="s">
-        <v>2589</v>
-      </c>
-    </row>
-    <row r="2592" spans="1:2">
-      <c r="A2592" s="1">
-        <v>2590</v>
-      </c>
-      <c r="B2592" t="s">
-        <v>2590</v>
-      </c>
-    </row>
-    <row r="2593" spans="1:2">
-      <c r="A2593" s="1">
-        <v>2591</v>
-      </c>
-      <c r="B2593" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="2594" spans="1:2">
-      <c r="A2594" s="1">
-        <v>2592</v>
-      </c>
-      <c r="B2594" t="s">
-        <v>2592</v>
-      </c>
-    </row>
-    <row r="2595" spans="1:2">
-      <c r="A2595" s="1">
-        <v>2593</v>
-      </c>
-      <c r="B2595" t="s">
-        <v>2593</v>
-      </c>
-    </row>
-    <row r="2596" spans="1:2">
-      <c r="A2596" s="1">
-        <v>2594</v>
-      </c>
-      <c r="B2596" t="s">
-        <v>2594</v>
-      </c>
-    </row>
-    <row r="2597" spans="1:2">
-      <c r="A2597" s="1">
-        <v>2595</v>
-      </c>
-      <c r="B2597" t="s">
-        <v>2595</v>
-      </c>
-    </row>
-    <row r="2598" spans="1:2">
-      <c r="A2598" s="1">
-        <v>2596</v>
-      </c>
-      <c r="B2598" t="s">
-        <v>2596</v>
-      </c>
-    </row>
-    <row r="2599" spans="1:2">
-      <c r="A2599" s="1">
-        <v>2597</v>
-      </c>
-      <c r="B2599" t="s">
-        <v>2597</v>
-      </c>
-    </row>
-    <row r="2600" spans="1:2">
-      <c r="A2600" s="1">
-        <v>2598</v>
-      </c>
-      <c r="B2600" t="s">
-        <v>2598</v>
-      </c>
-    </row>
-    <row r="2601" spans="1:2">
-      <c r="A2601" s="1">
-        <v>2599</v>
-      </c>
-      <c r="B2601" t="s">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="2602" spans="1:2">
-      <c r="A2602" s="1">
-        <v>2600</v>
-      </c>
-      <c r="B2602" t="s">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="2603" spans="1:2">
-      <c r="A2603" s="1">
-        <v>2601</v>
-      </c>
-      <c r="B2603" t="s">
-        <v>2601</v>
-      </c>
-    </row>
-    <row r="2604" spans="1:2">
-      <c r="A2604" s="1">
-        <v>2602</v>
-      </c>
-      <c r="B2604" t="s">
-        <v>2602</v>
-      </c>
-    </row>
-    <row r="2605" spans="1:2">
-      <c r="A2605" s="1">
-        <v>2603</v>
-      </c>
-      <c r="B2605" t="s">
-        <v>2603</v>
-      </c>
-    </row>
-    <row r="2606" spans="1:2">
-      <c r="A2606" s="1">
-        <v>2604</v>
-      </c>
-      <c r="B2606" t="s">
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="2607" spans="1:2">
-      <c r="A2607" s="1">
-        <v>2605</v>
-      </c>
-      <c r="B2607" t="s">
-        <v>2605</v>
-      </c>
-    </row>
-    <row r="2608" spans="1:2">
-      <c r="A2608" s="1">
-        <v>2606</v>
-      </c>
-      <c r="B2608" t="s">
-        <v>2606</v>
-      </c>
-    </row>
-    <row r="2609" spans="1:2">
-      <c r="A2609" s="1">
-        <v>2607</v>
-      </c>
-      <c r="B2609" t="s">
-        <v>2607</v>
-      </c>
-    </row>
-    <row r="2610" spans="1:2">
-      <c r="A2610" s="1">
-        <v>2608</v>
-      </c>
-      <c r="B2610" t="s">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="2611" spans="1:2">
-      <c r="A2611" s="1">
-        <v>2609</v>
-      </c>
-      <c r="B2611" t="s">
-        <v>2609</v>
-      </c>
-    </row>
-    <row r="2612" spans="1:2">
-      <c r="A2612" s="1">
-        <v>2610</v>
-      </c>
-      <c r="B2612" t="s">
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="2613" spans="1:2">
-      <c r="A2613" s="1">
-        <v>2611</v>
-      </c>
-      <c r="B2613" t="s">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="2614" spans="1:2">
-      <c r="A2614" s="1">
-        <v>2612</v>
-      </c>
-      <c r="B2614" t="s">
-        <v>2612</v>
-      </c>
-    </row>
-    <row r="2615" spans="1:2">
-      <c r="A2615" s="1">
-        <v>2613</v>
-      </c>
-      <c r="B2615" t="s">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="2616" spans="1:2">
-      <c r="A2616" s="1">
-        <v>2614</v>
-      </c>
-      <c r="B2616" t="s">
-        <v>2614</v>
-      </c>
-    </row>
-    <row r="2617" spans="1:2">
-      <c r="A2617" s="1">
-        <v>2615</v>
-      </c>
-      <c r="B2617" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="2618" spans="1:2">
-      <c r="A2618" s="1">
-        <v>2616</v>
-      </c>
-      <c r="B2618" t="s">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="2619" spans="1:2">
-      <c r="A2619" s="1">
-        <v>2617</v>
-      </c>
-      <c r="B2619" t="s">
-        <v>2617</v>
-      </c>
-    </row>
-    <row r="2620" spans="1:2">
-      <c r="A2620" s="1">
-        <v>2618</v>
-      </c>
-      <c r="B2620" t="s">
-        <v>2618</v>
-      </c>
-    </row>
-    <row r="2621" spans="1:2">
-      <c r="A2621" s="1">
-        <v>2619</v>
-      </c>
-      <c r="B2621" t="s">
-        <v>2619</v>
-      </c>
-    </row>
-    <row r="2622" spans="1:2">
-      <c r="A2622" s="1">
-        <v>2620</v>
-      </c>
-      <c r="B2622" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="2623" spans="1:2">
-      <c r="A2623" s="1">
-        <v>2621</v>
-      </c>
-      <c r="B2623" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="2624" spans="1:2">
-      <c r="A2624" s="1">
-        <v>2622</v>
-      </c>
-      <c r="B2624" t="s">
-        <v>2622</v>
-      </c>
-    </row>
-    <row r="2625" spans="1:2">
-      <c r="A2625" s="1">
-        <v>2623</v>
-      </c>
-      <c r="B2625" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="2626" spans="1:2">
-      <c r="A2626" s="1">
-        <v>2624</v>
-      </c>
-      <c r="B2626" t="s">
-        <v>2624</v>
-      </c>
-    </row>
-    <row r="2627" spans="1:2">
-      <c r="A2627" s="1">
-        <v>2625</v>
-      </c>
-      <c r="B2627" t="s">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="2628" spans="1:2">
-      <c r="A2628" s="1">
-        <v>2626</v>
-      </c>
-      <c r="B2628" t="s">
-        <v>2626</v>
-      </c>
-    </row>
-    <row r="2629" spans="1:2">
-      <c r="A2629" s="1">
-        <v>2627</v>
-      </c>
-      <c r="B2629" t="s">
-        <v>2627</v>
-      </c>
-    </row>
-    <row r="2630" spans="1:2">
-      <c r="A2630" s="1">
-        <v>2628</v>
-      </c>
-      <c r="B2630" t="s">
-        <v>2628</v>
-      </c>
-    </row>
-    <row r="2631" spans="1:2">
-      <c r="A2631" s="1">
-        <v>2629</v>
-      </c>
-      <c r="B2631" t="s">
-        <v>2629</v>
-      </c>
-    </row>
-    <row r="2632" spans="1:2">
-      <c r="A2632" s="1">
-        <v>2630</v>
-      </c>
-      <c r="B2632" t="s">
-        <v>2630</v>
-      </c>
-    </row>
-    <row r="2633" spans="1:2">
-      <c r="A2633" s="1">
-        <v>2631</v>
-      </c>
-      <c r="B2633" t="s">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="2634" spans="1:2">
-      <c r="A2634" s="1">
-        <v>2632</v>
-      </c>
-      <c r="B2634" t="s">
-        <v>2632</v>
-      </c>
-    </row>
-    <row r="2635" spans="1:2">
-      <c r="A2635" s="1">
-        <v>2633</v>
-      </c>
-      <c r="B2635" t="s">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="2636" spans="1:2">
-      <c r="A2636" s="1">
-        <v>2634</v>
-      </c>
-      <c r="B2636" t="s">
-        <v>2634</v>
-      </c>
-    </row>
-    <row r="2637" spans="1:2">
-      <c r="A2637" s="1">
-        <v>2635</v>
-      </c>
-      <c r="B2637" t="s">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="2638" spans="1:2">
-      <c r="A2638" s="1">
-        <v>2636</v>
-      </c>
-      <c r="B2638" t="s">
-        <v>2636</v>
-      </c>
-    </row>
-    <row r="2639" spans="1:2">
-      <c r="A2639" s="1">
-        <v>2637</v>
-      </c>
-      <c r="B2639" t="s">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="2640" spans="1:2">
-      <c r="A2640" s="1">
-        <v>2638</v>
-      </c>
-      <c r="B2640" t="s">
-        <v>2638</v>
-      </c>
-    </row>
-    <row r="2641" spans="1:2">
-      <c r="A2641" s="1">
-        <v>2639</v>
-      </c>
-      <c r="B2641" t="s">
-        <v>2639</v>
-      </c>
-    </row>
-    <row r="2642" spans="1:2">
-      <c r="A2642" s="1">
-        <v>2640</v>
-      </c>
-      <c r="B2642" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="2643" spans="1:2">
-      <c r="A2643" s="1">
-        <v>2641</v>
-      </c>
-      <c r="B2643" t="s">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="2644" spans="1:2">
-      <c r="A2644" s="1">
-        <v>2642</v>
-      </c>
-      <c r="B2644" t="s">
-        <v>2642</v>
-      </c>
-    </row>
-    <row r="2645" spans="1:2">
-      <c r="A2645" s="1">
-        <v>2643</v>
-      </c>
-      <c r="B2645" t="s">
-        <v>2643</v>
-      </c>
-    </row>
-    <row r="2646" spans="1:2">
-      <c r="A2646" s="1">
-        <v>2644</v>
-      </c>
-      <c r="B2646" t="s">
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="2647" spans="1:2">
-      <c r="A2647" s="1">
-        <v>2645</v>
-      </c>
-      <c r="B2647" t="s">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="2648" spans="1:2">
-      <c r="A2648" s="1">
-        <v>2646</v>
-      </c>
-      <c r="B2648" t="s">
-        <v>2646</v>
-      </c>
-    </row>
-    <row r="2649" spans="1:2">
-      <c r="A2649" s="1">
-        <v>2647</v>
-      </c>
-      <c r="B2649" t="s">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="2650" spans="1:2">
-      <c r="A2650" s="1">
-        <v>2648</v>
-      </c>
-      <c r="B2650" t="s">
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="2651" spans="1:2">
-      <c r="A2651" s="1">
-        <v>2649</v>
-      </c>
-      <c r="B2651" t="s">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="2652" spans="1:2">
-      <c r="A2652" s="1">
-        <v>2650</v>
-      </c>
-      <c r="B2652" t="s">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="2653" spans="1:2">
-      <c r="A2653" s="1">
-        <v>2651</v>
-      </c>
-      <c r="B2653" t="s">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="2654" spans="1:2">
-      <c r="A2654" s="1">
-        <v>2652</v>
-      </c>
-      <c r="B2654" t="s">
-        <v>2652</v>
-      </c>
-    </row>
-    <row r="2655" spans="1:2">
-      <c r="A2655" s="1">
-        <v>2653</v>
-      </c>
-      <c r="B2655" t="s">
-        <v>2653</v>
-      </c>
-    </row>
-    <row r="2656" spans="1:2">
-      <c r="A2656" s="1">
-        <v>2654</v>
-      </c>
-      <c r="B2656" t="s">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="2657" spans="1:2">
-      <c r="A2657" s="1">
-        <v>2655</v>
-      </c>
-      <c r="B2657" t="s">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="2658" spans="1:2">
-      <c r="A2658" s="1">
-        <v>2656</v>
-      </c>
-      <c r="B2658" t="s">
-        <v>2656</v>
-      </c>
-    </row>
-    <row r="2659" spans="1:2">
-      <c r="A2659" s="1">
-        <v>2657</v>
-      </c>
-      <c r="B2659" t="s">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="2660" spans="1:2">
-      <c r="A2660" s="1">
-        <v>2658</v>
-      </c>
-      <c r="B2660" t="s">
-        <v>2658</v>
-      </c>
-    </row>
-    <row r="2661" spans="1:2">
-      <c r="A2661" s="1">
-        <v>2659</v>
-      </c>
-      <c r="B2661" t="s">
-        <v>2659</v>
-      </c>
-    </row>
-    <row r="2662" spans="1:2">
-      <c r="A2662" s="1">
-        <v>2660</v>
-      </c>
-      <c r="B2662" t="s">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="2663" spans="1:2">
-      <c r="A2663" s="1">
-        <v>2661</v>
-      </c>
-      <c r="B2663" t="s">
-        <v>2661</v>
-      </c>
-    </row>
-    <row r="2664" spans="1:2">
-      <c r="A2664" s="1">
-        <v>2662</v>
-      </c>
-      <c r="B2664" t="s">
-        <v>2662</v>
-      </c>
-    </row>
-    <row r="2665" spans="1:2">
-      <c r="A2665" s="1">
-        <v>2663</v>
-      </c>
-      <c r="B2665" t="s">
-        <v>2663</v>
-      </c>
-    </row>
-    <row r="2666" spans="1:2">
-      <c r="A2666" s="1">
-        <v>2664</v>
-      </c>
-      <c r="B2666" t="s">
-        <v>2664</v>
-      </c>
-    </row>
-    <row r="2667" spans="1:2">
-      <c r="A2667" s="1">
-        <v>2665</v>
-      </c>
-      <c r="B2667" t="s">
-        <v>2665</v>
-      </c>
-    </row>
-    <row r="2668" spans="1:2">
-      <c r="A2668" s="1">
-        <v>2666</v>
-      </c>
-      <c r="B2668" t="s">
-        <v>2666</v>
-      </c>
-    </row>
-    <row r="2669" spans="1:2">
-      <c r="A2669" s="1">
-        <v>2667</v>
-      </c>
-      <c r="B2669" t="s">
-        <v>2667</v>
-      </c>
-    </row>
-    <row r="2670" spans="1:2">
-      <c r="A2670" s="1">
-        <v>2668</v>
-      </c>
-      <c r="B2670" t="s">
-        <v>2668</v>
-      </c>
-    </row>
-    <row r="2671" spans="1:2">
-      <c r="A2671" s="1">
-        <v>2669</v>
-      </c>
-      <c r="B2671" t="s">
-        <v>2669</v>
-      </c>
-    </row>
-    <row r="2672" spans="1:2">
-      <c r="A2672" s="1">
-        <v>2670</v>
-      </c>
-      <c r="B2672" t="s">
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="2673" spans="1:2">
-      <c r="A2673" s="1">
-        <v>2671</v>
-      </c>
-      <c r="B2673" t="s">
-        <v>2671</v>
-      </c>
-    </row>
-    <row r="2674" spans="1:2">
-      <c r="A2674" s="1">
-        <v>2672</v>
-      </c>
-      <c r="B2674" t="s">
-        <v>2672</v>
-      </c>
-    </row>
-    <row r="2675" spans="1:2">
-      <c r="A2675" s="1">
-        <v>2673</v>
-      </c>
-      <c r="B2675" t="s">
-        <v>2673</v>
-      </c>
-    </row>
-    <row r="2676" spans="1:2">
-      <c r="A2676" s="1">
-        <v>2674</v>
-      </c>
-      <c r="B2676" t="s">
-        <v>2674</v>
-      </c>
-    </row>
-    <row r="2677" spans="1:2">
-      <c r="A2677" s="1">
-        <v>2675</v>
-      </c>
-      <c r="B2677" t="s">
-        <v>2675</v>
-      </c>
-    </row>
-    <row r="2678" spans="1:2">
-      <c r="A2678" s="1">
-        <v>2676</v>
-      </c>
-      <c r="B2678" t="s">
-        <v>2676</v>
-      </c>
-    </row>
-    <row r="2679" spans="1:2">
-      <c r="A2679" s="1">
-        <v>2677</v>
-      </c>
-      <c r="B2679" t="s">
-        <v>2677</v>
-      </c>
-    </row>
-    <row r="2680" spans="1:2">
-      <c r="A2680" s="1">
-        <v>2678</v>
-      </c>
-      <c r="B2680" t="s">
-        <v>2678</v>
-      </c>
-    </row>
-    <row r="2681" spans="1:2">
-      <c r="A2681" s="1">
-        <v>2679</v>
-      </c>
-      <c r="B2681" t="s">
-        <v>2679</v>
-      </c>
-    </row>
-    <row r="2682" spans="1:2">
-      <c r="A2682" s="1">
-        <v>2680</v>
-      </c>
-      <c r="B2682" t="s">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="2683" spans="1:2">
-      <c r="A2683" s="1">
-        <v>2681</v>
-      </c>
-      <c r="B2683" t="s">
-        <v>2681</v>
-      </c>
-    </row>
-    <row r="2684" spans="1:2">
-      <c r="A2684" s="1">
-        <v>2682</v>
-      </c>
-      <c r="B2684" t="s">
-        <v>2682</v>
-      </c>
-    </row>
-    <row r="2685" spans="1:2">
-      <c r="A2685" s="1">
-        <v>2683</v>
-      </c>
-      <c r="B2685" t="s">
-        <v>2683</v>
-      </c>
-    </row>
-    <row r="2686" spans="1:2">
-      <c r="A2686" s="1">
-        <v>2684</v>
-      </c>
-      <c r="B2686" t="s">
-        <v>2684</v>
-      </c>
-    </row>
-    <row r="2687" spans="1:2">
-      <c r="A2687" s="1">
-        <v>2685</v>
-      </c>
-      <c r="B2687" t="s">
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="2688" spans="1:2">
-      <c r="A2688" s="1">
-        <v>2686</v>
-      </c>
-      <c r="B2688" t="s">
-        <v>2686</v>
-      </c>
-    </row>
-    <row r="2689" spans="1:2">
-      <c r="A2689" s="1">
-        <v>2687</v>
-      </c>
-      <c r="B2689" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="2690" spans="1:2">
-      <c r="A2690" s="1">
-        <v>2688</v>
-      </c>
-      <c r="B2690" t="s">
-        <v>2688</v>
-      </c>
-    </row>
-    <row r="2691" spans="1:2">
-      <c r="A2691" s="1">
-        <v>2689</v>
-      </c>
-      <c r="B2691" t="s">
-        <v>2689</v>
-      </c>
-    </row>
-    <row r="2692" spans="1:2">
-      <c r="A2692" s="1">
-        <v>2690</v>
-      </c>
-      <c r="B2692" t="s">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="2693" spans="1:2">
-      <c r="A2693" s="1">
-        <v>2691</v>
-      </c>
-      <c r="B2693" t="s">
-        <v>2691</v>
-      </c>
-    </row>
-    <row r="2694" spans="1:2">
-      <c r="A2694" s="1">
-        <v>2692</v>
-      </c>
-      <c r="B2694" t="s">
-        <v>2692</v>
-      </c>
-    </row>
-    <row r="2695" spans="1:2">
-      <c r="A2695" s="1">
-        <v>2693</v>
-      </c>
-      <c r="B2695" t="s">
-        <v>2693</v>
-      </c>
-    </row>
-    <row r="2696" spans="1:2">
-      <c r="A2696" s="1">
-        <v>2694</v>
-      </c>
-      <c r="B2696" t="s">
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="2697" spans="1:2">
-      <c r="A2697" s="1">
-        <v>2695</v>
-      </c>
-      <c r="B2697" t="s">
-        <v>2695</v>
-      </c>
-    </row>
-    <row r="2698" spans="1:2">
-      <c r="A2698" s="1">
-        <v>2696</v>
-      </c>
-      <c r="B2698" t="s">
-        <v>2696</v>
-      </c>
-    </row>
-    <row r="2699" spans="1:2">
-      <c r="A2699" s="1">
-        <v>2697</v>
-      </c>
-      <c r="B2699" t="s">
-        <v>2697</v>
-      </c>
-    </row>
-    <row r="2700" spans="1:2">
-      <c r="A2700" s="1">
-        <v>2698</v>
-      </c>
-      <c r="B2700" t="s">
-        <v>2698</v>
-      </c>
-    </row>
-    <row r="2701" spans="1:2">
-      <c r="A2701" s="1">
-        <v>2699</v>
-      </c>
-      <c r="B2701" t="s">
-        <v>2699</v>
-      </c>
-    </row>
-    <row r="2702" spans="1:2">
-      <c r="A2702" s="1">
-        <v>2700</v>
-      </c>
-      <c r="B2702" t="s">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="2703" spans="1:2">
-      <c r="A2703" s="1">
-        <v>2701</v>
-      </c>
-      <c r="B2703" t="s">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="2704" spans="1:2">
-      <c r="A2704" s="1">
-        <v>2702</v>
-      </c>
-      <c r="B2704" t="s">
-        <v>2702</v>
-      </c>
-    </row>
-    <row r="2705" spans="1:2">
-      <c r="A2705" s="1">
-        <v>2703</v>
-      </c>
-      <c r="B2705" t="s">
-        <v>2703</v>
-      </c>
-    </row>
-    <row r="2706" spans="1:2">
-      <c r="A2706" s="1">
-        <v>2704</v>
-      </c>
-      <c r="B2706" t="s">
-        <v>2704</v>
-      </c>
-    </row>
-    <row r="2707" spans="1:2">
-      <c r="A2707" s="1">
-        <v>2705</v>
-      </c>
-      <c r="B2707" t="s">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="2708" spans="1:2">
-      <c r="A2708" s="1">
-        <v>2706</v>
-      </c>
-      <c r="B2708" t="s">
-        <v>2706</v>
-      </c>
-    </row>
-    <row r="2709" spans="1:2">
-      <c r="A2709" s="1">
-        <v>2707</v>
-      </c>
-      <c r="B2709" t="s">
-        <v>2707</v>
-      </c>
-    </row>
-    <row r="2710" spans="1:2">
-      <c r="A2710" s="1">
-        <v>2708</v>
-      </c>
-      <c r="B2710" t="s">
-        <v>2708</v>
-      </c>
-    </row>
-    <row r="2711" spans="1:2">
-      <c r="A2711" s="1">
-        <v>2709</v>
-      </c>
-      <c r="B2711" t="s">
-        <v>2709</v>
-      </c>
-    </row>
-    <row r="2712" spans="1:2">
-      <c r="A2712" s="1">
-        <v>2710</v>
-      </c>
-      <c r="B2712" t="s">
-        <v>2710</v>
-      </c>
-    </row>
-    <row r="2713" spans="1:2">
-      <c r="A2713" s="1">
-        <v>2711</v>
-      </c>
-      <c r="B2713" t="s">
-        <v>2711</v>
-      </c>
-    </row>
-    <row r="2714" spans="1:2">
-      <c r="A2714" s="1">
-        <v>2712</v>
-      </c>
-      <c r="B2714" t="s">
-        <v>2712</v>
-      </c>
-    </row>
-    <row r="2715" spans="1:2">
-      <c r="A2715" s="1">
-        <v>2713</v>
-      </c>
-      <c r="B2715" t="s">
-        <v>2713</v>
-      </c>
-    </row>
-    <row r="2716" spans="1:2">
-      <c r="A2716" s="1">
-        <v>2714</v>
-      </c>
-      <c r="B2716" t="s">
-        <v>2714</v>
       </c>
     </row>
   </sheetData>
